--- a/Data/Parameters/Cold/Cold_Season.xlsx
+++ b/Data/Parameters/Cold/Cold_Season.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thesis\Data\Parameters\Cold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97C5042-E315-4EDF-98E2-53097C0B68E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2213B4E-30BC-42A0-B52C-EEBC54A708B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="299">
   <si>
     <t>شبکه بهداشت</t>
   </si>
@@ -926,10 +926,7 @@
     <t>٪ of patients</t>
   </si>
   <si>
-    <t>avg:</t>
-  </si>
-  <si>
-    <t>stdev:</t>
+    <t>Normalized Number of patients</t>
   </si>
 </sst>
 </file>
@@ -938,10 +935,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000000000000000000"/>
-    <numFmt numFmtId="169" formatCode="0.0000000000%"/>
-    <numFmt numFmtId="173" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000%"/>
+    <numFmt numFmtId="166" formatCode="0.000000000000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -974,6 +971,11 @@
       <color rgb="FF202122"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--ff-mono)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1012,7 +1014,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1037,11 +1039,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1382,19 +1392,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T284"/>
+  <dimension ref="A1:T293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="51.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="30" style="9" customWidth="1"/>
     <col min="6" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
@@ -1402,7 +1412,7 @@
     <col min="11" max="20" width="22.85546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1415,6 +1425,9 @@
       <c r="D1" s="7" t="s">
         <v>297</v>
       </c>
+      <c r="E1" s="7" t="s">
+        <v>298</v>
+      </c>
       <c r="F1" s="2" t="s">
         <v>290</v>
       </c>
@@ -1461,7 +1474,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
         <v>190</v>
       </c>
@@ -1475,9 +1488,9 @@
         <f>(B2/C2)</f>
         <v>5.1846228728537017E-5</v>
       </c>
-      <c r="E2" s="9">
-        <f>STANDARDIZE(D2,D283, D284)</f>
-        <v>-0.29596227981983902</v>
+      <c r="E2" s="17">
+        <f>(D2-0.000003375288165)/(0.005985744199327-0.000003375288165)</f>
+        <v>8.1022988189677105E-3</v>
       </c>
       <c r="F2" s="2">
         <v>0.120903247541074</v>
@@ -1525,7 +1538,7 @@
         <v>2.4604603225946598E-9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1536,8 +1549,12 @@
         <v>51552</v>
       </c>
       <c r="D3" s="13">
-        <f t="shared" ref="D3:D66" si="0">(B3/C3)</f>
+        <f>(B3/C3)</f>
         <v>3.8795779019242706E-5</v>
+      </c>
+      <c r="E3" s="17">
+        <f t="shared" ref="E3:E66" si="0">(D3-0.000003375288165)/(0.005985744199327-0.000003375288165)</f>
+        <v>5.92081354062846E-3</v>
       </c>
       <c r="F3" s="2">
         <v>9.7067787661106894E-2</v>
@@ -1585,7 +1602,7 @@
         <v>1.7238252373733301E-9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1596,8 +1613,12 @@
         <v>97960</v>
       </c>
       <c r="D4" s="13">
+        <f>(B4/C4)</f>
+        <v>1.3270722743977134E-4</v>
+      </c>
+      <c r="E4" s="17">
         <f t="shared" si="0"/>
-        <v>1.3270722743977134E-4</v>
+        <v>2.1618850524824998E-2</v>
       </c>
       <c r="F4" s="2">
         <v>9.9438370870554904E-2</v>
@@ -1645,7 +1666,7 @@
         <v>1.7481171107266799E-9</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -1656,8 +1677,12 @@
         <v>50845</v>
       </c>
       <c r="D5" s="13">
+        <f>(B5/C5)</f>
+        <v>1.3767332087717574E-4</v>
+      </c>
+      <c r="E5" s="17">
         <f t="shared" si="0"/>
-        <v>1.3767332087717574E-4</v>
+        <v>2.2448972088899486E-2</v>
       </c>
       <c r="F5" s="2">
         <v>8.8784954616786704E-2</v>
@@ -1705,7 +1730,7 @@
         <v>1.7359354197216101E-9</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
@@ -1716,10 +1741,13 @@
         <v>43893</v>
       </c>
       <c r="D6" s="13">
+        <f>(B6/C6)</f>
+        <v>1.366960563187752E-4</v>
+      </c>
+      <c r="E6" s="17">
         <f t="shared" si="0"/>
-        <v>1.366960563187752E-4</v>
-      </c>
-      <c r="E6" s="8"/>
+        <v>2.2285614634200038E-2</v>
+      </c>
       <c r="F6" s="2">
         <v>8.8824911353833094E-2</v>
       </c>
@@ -1766,7 +1794,7 @@
         <v>1.69667470925377E-9</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
         <v>90</v>
       </c>
@@ -1777,8 +1805,12 @@
         <v>36562</v>
       </c>
       <c r="D7" s="13">
+        <f>(B7/C7)</f>
+        <v>8.205240413544117E-5</v>
+      </c>
+      <c r="E7" s="17">
         <f t="shared" si="0"/>
-        <v>8.205240413544117E-5</v>
+        <v>1.3151498534910501E-2</v>
       </c>
       <c r="F7" s="2">
         <v>9.0819492256578996E-2</v>
@@ -1826,7 +1858,7 @@
         <v>1.7273357899837E-9</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
         <v>214</v>
       </c>
@@ -1837,8 +1869,12 @@
         <v>51733</v>
       </c>
       <c r="D8" s="13">
+        <f>(B8/C8)</f>
+        <v>9.6650107281619086E-5</v>
+      </c>
+      <c r="E8" s="17">
         <f t="shared" si="0"/>
-        <v>9.6650107281619086E-5</v>
+        <v>1.5591619390536987E-2</v>
       </c>
       <c r="F8" s="2">
         <v>9.0399030829960494E-2</v>
@@ -1886,7 +1922,7 @@
         <v>1.6685015532689E-9</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
         <v>217</v>
       </c>
@@ -1897,8 +1933,12 @@
         <v>99727</v>
       </c>
       <c r="D9" s="13">
+        <f>(B9/C9)</f>
+        <v>7.0191623131148033E-5</v>
+      </c>
+      <c r="E9" s="17">
         <f t="shared" si="0"/>
-        <v>7.0191623131148033E-5</v>
+        <v>1.116887573440699E-2</v>
       </c>
       <c r="F9" s="2">
         <v>8.3516992443530294E-2</v>
@@ -1946,7 +1986,7 @@
         <v>1.8256212047826E-9</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
         <v>275</v>
       </c>
@@ -1957,8 +1997,12 @@
         <v>656474</v>
       </c>
       <c r="D10" s="13">
+        <f>(B10/C10)</f>
+        <v>1.1120013892400917E-4</v>
+      </c>
+      <c r="E10" s="17">
         <f t="shared" si="0"/>
-        <v>1.1120013892400917E-4</v>
+        <v>1.8023771579487154E-2</v>
       </c>
       <c r="F10" s="2">
         <v>8.96652645856853E-2</v>
@@ -2006,7 +2050,7 @@
         <v>1.69612248191758E-9</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -2017,8 +2061,12 @@
         <v>100831</v>
       </c>
       <c r="D11" s="13">
+        <f>(B11/C11)</f>
+        <v>9.9175848697325232E-6</v>
+      </c>
+      <c r="E11" s="17">
         <f t="shared" si="0"/>
-        <v>9.9175848697325232E-6</v>
+        <v>1.0935963331391684E-3</v>
       </c>
       <c r="F11" s="2">
         <v>8.4035230750452203E-2</v>
@@ -2066,7 +2114,7 @@
         <v>1.9911843171546901E-9</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -2077,8 +2125,12 @@
         <v>42725</v>
       </c>
       <c r="D12" s="13">
+        <f>(B12/C12)</f>
+        <v>2.3405500292568753E-5</v>
+      </c>
+      <c r="E12" s="17">
         <f t="shared" si="0"/>
-        <v>2.3405500292568753E-5</v>
+        <v>3.3482074450801686E-3</v>
       </c>
       <c r="F12" s="2">
         <v>7.9415778536933296E-2</v>
@@ -2126,7 +2178,7 @@
         <v>1.8259364619979E-9</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -2137,8 +2189,12 @@
         <v>68850</v>
       </c>
       <c r="D13" s="13">
+        <f>(B13/C13)</f>
+        <v>1.3071895424836603E-4</v>
+      </c>
+      <c r="E13" s="17">
         <f t="shared" si="0"/>
-        <v>1.3071895424836603E-4</v>
+        <v>2.1286495028042515E-2</v>
       </c>
       <c r="F13" s="2">
         <v>0.102252207607558</v>
@@ -2186,7 +2242,7 @@
         <v>1.7437820492372799E-9</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
         <v>84</v>
       </c>
@@ -2197,8 +2253,12 @@
         <v>228532</v>
       </c>
       <c r="D14" s="13">
+        <f>(B14/C14)</f>
+        <v>7.0012077083296865E-5</v>
+      </c>
+      <c r="E14" s="17">
         <f t="shared" si="0"/>
-        <v>7.0012077083296865E-5</v>
+        <v>1.1138863200824153E-2</v>
       </c>
       <c r="F14" s="2">
         <v>0.115726086747537</v>
@@ -2246,7 +2306,7 @@
         <v>2.0277790307858801E-9</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
         <v>101</v>
       </c>
@@ -2257,8 +2317,12 @@
         <v>201489</v>
       </c>
       <c r="D15" s="13">
+        <f>(B15/C15)</f>
+        <v>9.9261001841291585E-6</v>
+      </c>
+      <c r="E15" s="17">
         <f t="shared" si="0"/>
-        <v>9.9261001841291585E-6</v>
+        <v>1.0950197348924015E-3</v>
       </c>
       <c r="F15" s="2">
         <v>0.113899699238089</v>
@@ -2306,7 +2370,7 @@
         <v>2.0190955607097899E-9</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
         <v>131</v>
       </c>
@@ -2317,8 +2381,12 @@
         <v>73199</v>
       </c>
       <c r="D16" s="13">
+        <f>(B16/C16)</f>
+        <v>1.5027527698465825E-4</v>
+      </c>
+      <c r="E16" s="17">
         <f t="shared" si="0"/>
-        <v>1.5027527698465825E-4</v>
+        <v>2.4555488135405677E-2</v>
       </c>
       <c r="F16" s="2">
         <v>0.117204553091561</v>
@@ -2366,7 +2434,7 @@
         <v>2.0758953921093099E-9</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
         <v>141</v>
       </c>
@@ -2377,8 +2445,12 @@
         <v>38114</v>
       </c>
       <c r="D17" s="13">
+        <f>(B17/C17)</f>
+        <v>5.247415647793462E-5</v>
+      </c>
+      <c r="E17" s="17">
         <f t="shared" si="0"/>
-        <v>5.247415647793462E-5</v>
+        <v>8.2072618793744331E-3</v>
       </c>
       <c r="F17" s="2">
         <v>0.100361121986854</v>
@@ -2426,7 +2498,7 @@
         <v>1.9624491893161498E-9</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
         <v>289</v>
       </c>
@@ -2437,8 +2509,12 @@
         <v>1869001</v>
       </c>
       <c r="D18" s="13">
+        <f>(B18/C18)</f>
+        <v>2.4612078859240844E-5</v>
+      </c>
+      <c r="E18" s="17">
         <f t="shared" si="0"/>
-        <v>2.4612078859240844E-5</v>
+        <v>3.5498965392483399E-3</v>
       </c>
       <c r="F18" s="2">
         <v>0.116672506695186</v>
@@ -2486,7 +2562,7 @@
         <v>2.1501314964891799E-9</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="1" t="s">
         <v>181</v>
       </c>
@@ -2497,8 +2573,12 @@
         <v>205187</v>
       </c>
       <c r="D19" s="13">
+        <f>(B19/C19)</f>
+        <v>5.8483237242125476E-5</v>
+      </c>
+      <c r="E19" s="17">
         <f t="shared" si="0"/>
-        <v>5.8483237242125476E-5</v>
+        <v>9.2117269756307029E-3</v>
       </c>
       <c r="F19" s="2">
         <v>0.103475278162037</v>
@@ -2546,7 +2626,7 @@
         <v>1.84019962873683E-9</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="A20" s="1" t="s">
         <v>246</v>
       </c>
@@ -2557,8 +2637,12 @@
         <v>266217</v>
       </c>
       <c r="D20" s="13">
+        <f>(B20/C20)</f>
+        <v>3.7563341184071639E-6</v>
+      </c>
+      <c r="E20" s="17">
         <f t="shared" si="0"/>
-        <v>3.7563341184071639E-6</v>
+        <v>6.3694827093695674E-5</v>
       </c>
       <c r="F20" s="2">
         <v>0.12381512579949699</v>
@@ -2606,7 +2690,7 @@
         <v>2.3724461840957E-9</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="A21" s="1" t="s">
         <v>192</v>
       </c>
@@ -2617,8 +2701,12 @@
         <v>213920</v>
       </c>
       <c r="D21" s="13">
+        <f>(B21/C21)</f>
+        <v>9.3492894540014964E-6</v>
+      </c>
+      <c r="E21" s="17">
         <f t="shared" si="0"/>
-        <v>9.3492894540014964E-6</v>
+        <v>9.9860128616526965E-4</v>
       </c>
       <c r="F21" s="2">
         <v>0.14325039341715401</v>
@@ -2666,7 +2754,7 @@
         <v>2.3249543373896498E-9</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20">
       <c r="A22" s="1" t="s">
         <v>204</v>
       </c>
@@ -2677,8 +2765,12 @@
         <v>323434</v>
       </c>
       <c r="D22" s="13">
+        <f>(B22/C22)</f>
+        <v>9.275462690997236E-6</v>
+      </c>
+      <c r="E22" s="17">
         <f t="shared" si="0"/>
-        <v>9.275462690997236E-6</v>
+        <v>9.8626056226465658E-4</v>
       </c>
       <c r="F22" s="2">
         <v>0.10097890146820999</v>
@@ -2726,7 +2818,7 @@
         <v>1.9129710277540401E-9</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="A23" s="1" t="s">
         <v>230</v>
       </c>
@@ -2737,8 +2829,12 @@
         <v>113291</v>
       </c>
       <c r="D23" s="13">
+        <f>(B23/C23)</f>
+        <v>8.8268264910716653E-6</v>
+      </c>
+      <c r="E23" s="17">
         <f t="shared" si="0"/>
-        <v>8.8268264910716653E-6</v>
+        <v>9.1126749403569842E-4</v>
       </c>
       <c r="F23" s="2">
         <v>0.112789423178233</v>
@@ -2786,7 +2882,7 @@
         <v>1.7515615281179901E-9</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24" s="1" t="s">
         <v>265</v>
       </c>
@@ -2797,8 +2893,12 @@
         <v>53907</v>
       </c>
       <c r="D24" s="13">
+        <f>(B24/C24)</f>
+        <v>3.7100933088467177E-5</v>
+      </c>
+      <c r="E24" s="17">
         <f t="shared" si="0"/>
-        <v>3.7100933088467177E-5</v>
+        <v>5.6375067175381518E-3</v>
       </c>
       <c r="F24" s="2">
         <v>0.13834366665091599</v>
@@ -2846,7 +2946,7 @@
         <v>2.35005194385249E-9</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -2857,8 +2957,12 @@
         <v>37876</v>
       </c>
       <c r="D25" s="13">
+        <f>(B25/C25)</f>
+        <v>2.640194318301827E-5</v>
+      </c>
+      <c r="E25" s="17">
         <f t="shared" si="0"/>
-        <v>2.640194318301827E-5</v>
+        <v>3.8490864338129945E-3</v>
       </c>
       <c r="F25" s="2">
         <v>8.6487133652648499E-2</v>
@@ -2906,7 +3010,7 @@
         <v>2.5860389126543E-9</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="A26" s="1" t="s">
         <v>134</v>
       </c>
@@ -2917,8 +3021,12 @@
         <v>259973</v>
       </c>
       <c r="D26" s="13">
+        <f>(B26/C26)</f>
+        <v>1.9232766479595957E-5</v>
+      </c>
+      <c r="E26" s="17">
         <f t="shared" si="0"/>
-        <v>1.9232766479595957E-5</v>
+        <v>2.6507021800358747E-3</v>
       </c>
       <c r="F26" s="2">
         <v>8.9096082533100002E-2</v>
@@ -2966,7 +3074,7 @@
         <v>2.5233112261575098E-9</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="A27" s="1" t="s">
         <v>251</v>
       </c>
@@ -2977,8 +3085,12 @@
         <v>1973470</v>
       </c>
       <c r="D27" s="13">
+        <f>(B27/C27)</f>
+        <v>1.1198548749157576E-4</v>
+      </c>
+      <c r="E27" s="17">
         <f t="shared" si="0"/>
-        <v>1.1198548749157576E-4</v>
+        <v>1.8155048767375261E-2</v>
       </c>
       <c r="F27" s="2">
         <v>8.9042413392452904E-2</v>
@@ -3026,7 +3138,7 @@
         <v>2.5554070328226399E-9</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20">
       <c r="A28" s="1" t="s">
         <v>223</v>
       </c>
@@ -3037,8 +3149,12 @@
         <v>152437</v>
       </c>
       <c r="D28" s="13">
+        <f>(B28/C28)</f>
+        <v>2.6240348471827707E-5</v>
+      </c>
+      <c r="E28" s="17">
         <f t="shared" si="0"/>
-        <v>2.6240348471827707E-5</v>
+        <v>3.8220746072957336E-3</v>
       </c>
       <c r="F28" s="2">
         <v>8.6879988987363599E-2</v>
@@ -3086,7 +3202,7 @@
         <v>2.5860389126543E-9</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -3097,8 +3213,12 @@
         <v>224590</v>
       </c>
       <c r="D29" s="13">
+        <f>(B29/C29)</f>
+        <v>7.5693485907653952E-5</v>
+      </c>
+      <c r="E29" s="17">
         <f t="shared" si="0"/>
-        <v>7.5693485907653952E-5</v>
+        <v>1.2088555356009808E-2</v>
       </c>
       <c r="F29" s="2">
         <v>0.10311741371428899</v>
@@ -3146,7 +3266,7 @@
         <v>3.0909021428895199E-9</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -3157,8 +3277,12 @@
         <v>49491</v>
       </c>
       <c r="D30" s="13">
+        <f>(B30/C30)</f>
+        <v>2.4246832757471054E-4</v>
+      </c>
+      <c r="E30" s="17">
         <f t="shared" si="0"/>
-        <v>2.4246832757471054E-4</v>
+        <v>3.9966281411299612E-2</v>
       </c>
       <c r="F30" s="2">
         <v>8.5966949396620404E-2</v>
@@ -3206,7 +3330,7 @@
         <v>3.1085991031486898E-9</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20">
       <c r="A31" s="1" t="s">
         <v>104</v>
       </c>
@@ -3217,8 +3341,12 @@
         <v>43708</v>
       </c>
       <c r="D31" s="13">
+        <f>(B31/C31)</f>
+        <v>1.143955339983527E-4</v>
+      </c>
+      <c r="E31" s="17">
         <f t="shared" si="0"/>
-        <v>1.143955339983527E-4</v>
+        <v>1.8557906990023524E-2</v>
       </c>
       <c r="F31" s="2">
         <v>9.2192635934445294E-2</v>
@@ -3266,7 +3394,7 @@
         <v>2.9162555953703601E-9</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20">
       <c r="A32" s="1" t="s">
         <v>114</v>
       </c>
@@ -3277,8 +3405,12 @@
         <v>65630</v>
       </c>
       <c r="D32" s="13">
+        <f>(B32/C32)</f>
+        <v>3.0473868657626086E-5</v>
+      </c>
+      <c r="E32" s="17">
         <f t="shared" si="0"/>
-        <v>3.0473868657626086E-5</v>
+        <v>4.5297407924919375E-3</v>
       </c>
       <c r="F32" s="2">
         <v>0.11109581357334899</v>
@@ -3326,7 +3458,7 @@
         <v>2.9909368586876801E-9</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20">
       <c r="A33" s="1" t="s">
         <v>213</v>
       </c>
@@ -3337,8 +3469,12 @@
         <v>29797</v>
       </c>
       <c r="D33" s="13">
+        <f>(B33/C33)</f>
+        <v>5.3696680873913485E-4</v>
+      </c>
+      <c r="E33" s="17">
         <f t="shared" si="0"/>
-        <v>5.3696680873913485E-4</v>
+        <v>8.919401803833113E-2</v>
       </c>
       <c r="F33" s="2">
         <v>0.113659957195485</v>
@@ -3386,7 +3522,7 @@
         <v>3.1421493477991699E-9</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20">
       <c r="A34" s="1" t="s">
         <v>61</v>
       </c>
@@ -3397,8 +3533,12 @@
         <v>298594</v>
       </c>
       <c r="D34" s="13">
+        <f>(B34/C34)</f>
+        <v>6.3631553212723638E-5</v>
+      </c>
+      <c r="E34" s="17">
         <f t="shared" si="0"/>
-        <v>6.3631553212723638E-5</v>
+        <v>1.0072308468856966E-2</v>
       </c>
       <c r="F34" s="2">
         <v>0.14679695060319001</v>
@@ -3446,7 +3586,7 @@
         <v>2.9422579374955399E-9</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20">
       <c r="A35" s="1" t="s">
         <v>108</v>
       </c>
@@ -3457,8 +3597,12 @@
         <v>252047</v>
       </c>
       <c r="D35" s="13">
+        <f>(B35/C35)</f>
+        <v>1.1902541986216856E-5</v>
+      </c>
+      <c r="E35" s="17">
         <f t="shared" si="0"/>
-        <v>1.1902541986216856E-5</v>
+        <v>1.4253975219258995E-3</v>
       </c>
       <c r="F35" s="2">
         <v>0.147095226521267</v>
@@ -3506,7 +3650,7 @@
         <v>2.6677911884957998E-9</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20">
       <c r="A36" s="1" t="s">
         <v>109</v>
       </c>
@@ -3517,8 +3661,12 @@
         <v>86319</v>
       </c>
       <c r="D36" s="13">
+        <f>(B36/C36)</f>
+        <v>6.9509609703541521E-5</v>
+      </c>
+      <c r="E36" s="17">
         <f t="shared" si="0"/>
-        <v>6.9509609703541521E-5</v>
+        <v>1.1054871827637884E-2</v>
       </c>
       <c r="F36" s="2">
         <v>0.17044800424050799</v>
@@ -3566,7 +3714,7 @@
         <v>2.9755534948231799E-9</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20">
       <c r="A37" s="1" t="s">
         <v>116</v>
       </c>
@@ -3577,8 +3725,12 @@
         <v>34828</v>
       </c>
       <c r="D37" s="13">
+        <f>(B37/C37)</f>
+        <v>2.8712530148156656E-5</v>
+      </c>
+      <c r="E37" s="17">
         <f t="shared" si="0"/>
-        <v>2.8712530148156656E-5</v>
+        <v>4.2353192120736689E-3</v>
       </c>
       <c r="F37" s="2">
         <v>0.124976265320417</v>
@@ -3626,7 +3778,7 @@
         <v>3.02054716947348E-9</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20">
       <c r="A38" s="1" t="s">
         <v>258</v>
       </c>
@@ -3637,8 +3789,12 @@
         <v>107801</v>
       </c>
       <c r="D38" s="13">
+        <f>(B38/C38)</f>
+        <v>3.7105407185462104E-5</v>
+      </c>
+      <c r="E38" s="17">
         <f t="shared" si="0"/>
-        <v>3.7105407185462104E-5</v>
+        <v>5.6382545980285343E-3</v>
       </c>
       <c r="F38" s="2">
         <v>0.178416614998614</v>
@@ -3686,7 +3842,7 @@
         <v>2.8937717846955198E-9</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20">
       <c r="A39" s="1" t="s">
         <v>272</v>
       </c>
@@ -3697,8 +3853,12 @@
         <v>102484</v>
       </c>
       <c r="D39" s="13">
+        <f>(B39/C39)</f>
+        <v>1.951524140353616E-5</v>
+      </c>
+      <c r="E39" s="17">
         <f t="shared" si="0"/>
-        <v>1.951524140353616E-5</v>
+        <v>2.6979200845374104E-3</v>
       </c>
       <c r="F39" s="2">
         <v>0.149551904143752</v>
@@ -3746,7 +3906,7 @@
         <v>2.9491642943687499E-9</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20">
       <c r="A40" s="1" t="s">
         <v>22</v>
       </c>
@@ -3757,8 +3917,12 @@
         <v>548620</v>
       </c>
       <c r="D40" s="13">
+        <f>(B40/C40)</f>
+        <v>6.5619189967554961E-5</v>
+      </c>
+      <c r="E40" s="17">
         <f t="shared" si="0"/>
-        <v>6.5619189967554961E-5</v>
+        <v>1.0404557580262108E-2</v>
       </c>
       <c r="F40" s="2">
         <v>9.58136492851034E-2</v>
@@ -3806,19 +3970,23 @@
         <v>2.6458627883997199E-9</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20">
       <c r="A41" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="16">
         <v>1</v>
       </c>
       <c r="C41" s="8">
         <v>536329</v>
       </c>
       <c r="D41" s="13">
+        <f>(B41/C41)</f>
+        <v>1.8645271838740774E-6</v>
+      </c>
+      <c r="E41" s="17">
         <f t="shared" si="0"/>
-        <v>1.8645271838740774E-6</v>
+        <v>-2.5253557638465265E-4</v>
       </c>
       <c r="F41" s="2">
         <v>8.4611777356239801E-2</v>
@@ -3866,7 +4034,7 @@
         <v>2.6458627883997199E-9</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20">
       <c r="A42" s="1" t="s">
         <v>112</v>
       </c>
@@ -3877,8 +4045,12 @@
         <v>125480</v>
       </c>
       <c r="D42" s="13">
+        <f>(B42/C42)</f>
+        <v>4.7816385081287852E-5</v>
+      </c>
+      <c r="E42" s="17">
         <f t="shared" si="0"/>
-        <v>4.7816385081287852E-5</v>
+        <v>7.4286787686010033E-3</v>
       </c>
       <c r="F42" s="2">
         <v>9.7278571728593194E-2</v>
@@ -3926,7 +4098,7 @@
         <v>2.11784018864158E-9</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20">
       <c r="A43" s="1" t="s">
         <v>121</v>
       </c>
@@ -3937,8 +4109,12 @@
         <v>291516</v>
       </c>
       <c r="D43" s="13">
+        <f>(B43/C43)</f>
+        <v>6.8606868919716236E-5</v>
+      </c>
+      <c r="E43" s="17">
         <f t="shared" si="0"/>
-        <v>6.8606868919716236E-5</v>
+        <v>1.0903971607803408E-2</v>
       </c>
       <c r="F43" s="2">
         <v>8.5203747932967797E-2</v>
@@ -3986,7 +4162,7 @@
         <v>2.7706925429453799E-9</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20">
       <c r="A44" s="1" t="s">
         <v>128</v>
       </c>
@@ -3997,8 +4173,12 @@
         <v>349700</v>
       </c>
       <c r="D44" s="13">
+        <f>(B44/C44)</f>
+        <v>1.4297969688304262E-4</v>
+      </c>
+      <c r="E44" s="17">
         <f t="shared" si="0"/>
-        <v>1.4297969688304262E-4</v>
+        <v>2.3335974559771211E-2</v>
       </c>
       <c r="F44" s="2">
         <v>0.10332816329739</v>
@@ -4046,7 +4226,7 @@
         <v>2.8093592633289399E-9</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20">
       <c r="A45" s="1" t="s">
         <v>160</v>
       </c>
@@ -4057,8 +4237,12 @@
         <v>47279</v>
       </c>
       <c r="D45" s="13">
+        <f>(B45/C45)</f>
+        <v>5.9857441993273969E-3</v>
+      </c>
+      <c r="E45" s="17">
         <f t="shared" si="0"/>
-        <v>5.9857441993273969E-3</v>
+        <v>1.0000000000000664</v>
       </c>
       <c r="F45" s="2">
         <v>7.5709355102080697E-2</v>
@@ -4106,7 +4290,7 @@
         <v>2.2806314902457798E-9</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20">
       <c r="A46" s="1" t="s">
         <v>164</v>
       </c>
@@ -4117,8 +4301,12 @@
         <v>744210</v>
       </c>
       <c r="D46" s="13">
+        <f>(B46/C46)</f>
+        <v>4.8373442979804089E-5</v>
+      </c>
+      <c r="E46" s="17">
         <f t="shared" si="0"/>
-        <v>4.8373442979804089E-5</v>
+        <v>7.5217953762172383E-3</v>
       </c>
       <c r="F46" s="2">
         <v>8.9431068841556396E-2</v>
@@ -4166,7 +4354,7 @@
         <v>2.6458627883997199E-9</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20">
       <c r="A47" s="1" t="s">
         <v>184</v>
       </c>
@@ -4177,8 +4365,12 @@
         <v>33558</v>
       </c>
       <c r="D47" s="13">
+        <f>(B47/C47)</f>
+        <v>8.9397461112104414E-4</v>
+      </c>
+      <c r="E47" s="17">
         <f t="shared" si="0"/>
-        <v>8.9397461112104414E-4</v>
+        <v>0.14887067918769598</v>
       </c>
       <c r="F47" s="2">
         <v>9.3852403125953304E-2</v>
@@ -4226,7 +4418,7 @@
         <v>2.04407884795956E-9</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20">
       <c r="A48" s="1" t="s">
         <v>234</v>
       </c>
@@ -4237,8 +4429,12 @@
         <v>283742</v>
       </c>
       <c r="D48" s="13">
+        <f>(B48/C48)</f>
+        <v>3.8767612831374981E-4</v>
+      </c>
+      <c r="E48" s="17">
         <f t="shared" si="0"/>
-        <v>3.8767612831374981E-4</v>
+        <v>6.423890700416604E-2</v>
       </c>
       <c r="F48" s="2">
         <v>0.103348194254821</v>
@@ -4286,7 +4482,7 @@
         <v>2.4025908968135799E-9</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20">
       <c r="A49" s="1" t="s">
         <v>237</v>
       </c>
@@ -4297,8 +4493,12 @@
         <v>350966</v>
       </c>
       <c r="D49" s="13">
+        <f>(B49/C49)</f>
+        <v>9.6875480815805515E-5</v>
+      </c>
+      <c r="E49" s="17">
         <f t="shared" si="0"/>
-        <v>9.6875480815805515E-5</v>
+        <v>1.5629292348780324E-2</v>
       </c>
       <c r="F49" s="2">
         <v>9.5545949963535201E-2</v>
@@ -4346,7 +4546,7 @@
         <v>2.3249127271313599E-9</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20">
       <c r="A50" s="1" t="s">
         <v>78</v>
       </c>
@@ -4357,8 +4557,12 @@
         <v>2768322</v>
       </c>
       <c r="D50" s="13">
+        <f>(B50/C50)</f>
+        <v>1.5243891425925163E-4</v>
+      </c>
+      <c r="E50" s="17">
         <f t="shared" si="0"/>
-        <v>1.5243891425925163E-4</v>
+        <v>2.4917157117496772E-2</v>
       </c>
       <c r="F50" s="2">
         <v>9.2522738088979595E-2</v>
@@ -4406,7 +4610,7 @@
         <v>2.6458627883997199E-9</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20">
       <c r="A51" s="1" t="s">
         <v>76</v>
       </c>
@@ -4417,8 +4621,12 @@
         <v>2444257</v>
       </c>
       <c r="D51" s="13">
+        <f>(B51/C51)</f>
+        <v>7.8960600296940956E-5</v>
+      </c>
+      <c r="E51" s="17">
         <f t="shared" si="0"/>
-        <v>7.8960600296940956E-5</v>
+        <v>1.2634679213933575E-2</v>
       </c>
       <c r="F51" s="2">
         <v>9.3683076490968395E-2</v>
@@ -4466,7 +4674,7 @@
         <v>2.6458627883997199E-9</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20">
       <c r="A52" s="1" t="s">
         <v>77</v>
       </c>
@@ -4477,8 +4685,12 @@
         <v>3481127</v>
       </c>
       <c r="D52" s="13">
+        <f>(B52/C52)</f>
+        <v>4.1365913969814946E-5</v>
+      </c>
+      <c r="E52" s="17">
         <f t="shared" si="0"/>
-        <v>4.1365913969814946E-5</v>
+        <v>6.3504318053558056E-3</v>
       </c>
       <c r="F52" s="2">
         <v>9.8277421932440504E-2</v>
@@ -4526,7 +4738,7 @@
         <v>2.3269434656947402E-9</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20">
       <c r="A53" s="1" t="s">
         <v>9</v>
       </c>
@@ -4537,8 +4749,12 @@
         <v>151528</v>
       </c>
       <c r="D53" s="13">
+        <f>(B53/C53)</f>
+        <v>1.2538936698167996E-4</v>
+      </c>
+      <c r="E53" s="17">
         <f t="shared" si="0"/>
-        <v>1.2538936698167996E-4</v>
+        <v>2.0395612612425847E-2</v>
       </c>
       <c r="F53" s="2">
         <v>7.6695414250617294E-2</v>
@@ -4586,7 +4802,7 @@
         <v>2.8330086341875202E-9</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20">
       <c r="A54" s="1" t="s">
         <v>31</v>
       </c>
@@ -4597,8 +4813,12 @@
         <v>36641</v>
       </c>
       <c r="D54" s="13">
+        <f>(B54/C54)</f>
+        <v>5.4583663109631287E-5</v>
+      </c>
+      <c r="E54" s="17">
         <f t="shared" si="0"/>
-        <v>5.4583663109631287E-5</v>
+        <v>8.5598824989020442E-3</v>
       </c>
       <c r="F54" s="2">
         <v>8.0944405869505201E-2</v>
@@ -4646,7 +4866,7 @@
         <v>2.7809382414866799E-9</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20">
       <c r="A55" s="1" t="s">
         <v>91</v>
       </c>
@@ -4657,8 +4877,12 @@
         <v>164493</v>
       </c>
       <c r="D55" s="13">
+        <f>(B55/C55)</f>
+        <v>3.1004358848096879E-4</v>
+      </c>
+      <c r="E55" s="17">
         <f t="shared" si="0"/>
-        <v>3.1004358848096879E-4</v>
+        <v>5.126201758366692E-2</v>
       </c>
       <c r="F55" s="2">
         <v>9.0696010509393798E-2</v>
@@ -4706,7 +4930,7 @@
         <v>2.73354886632264E-9</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20">
       <c r="A56" s="1" t="s">
         <v>93</v>
       </c>
@@ -4717,8 +4941,12 @@
         <v>67951</v>
       </c>
       <c r="D56" s="13">
+        <f>(B56/C56)</f>
+        <v>5.7394298832982589E-4</v>
+      </c>
+      <c r="E56" s="17">
         <f t="shared" si="0"/>
-        <v>5.7394298832982589E-4</v>
+        <v>9.5374877182891796E-2</v>
       </c>
       <c r="F56" s="2">
         <v>6.0063873840895801E-2</v>
@@ -4766,7 +4994,7 @@
         <v>2.9199566761189798E-9</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20">
       <c r="A57" s="1" t="s">
         <v>132</v>
       </c>
@@ -4777,8 +5005,12 @@
         <v>521302</v>
       </c>
       <c r="D57" s="13">
+        <f>(B57/C57)</f>
+        <v>7.4812680557527109E-5</v>
+      </c>
+      <c r="E57" s="17">
         <f t="shared" si="0"/>
-        <v>7.4812680557527109E-5</v>
+        <v>1.1941321816385825E-2</v>
       </c>
       <c r="F57" s="2">
         <v>9.9931076454304796E-2</v>
@@ -4826,7 +5058,7 @@
         <v>2.81911638607385E-9</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20">
       <c r="A58" s="1" t="s">
         <v>170</v>
       </c>
@@ -4837,8 +5069,12 @@
         <v>46641</v>
       </c>
       <c r="D58" s="13">
+        <f>(B58/C58)</f>
+        <v>4.0736690894277569E-4</v>
+      </c>
+      <c r="E58" s="17">
         <f t="shared" si="0"/>
-        <v>4.0736690894277569E-4</v>
+        <v>6.7530375805477591E-2</v>
       </c>
       <c r="F58" s="2">
         <v>9.5342898148561103E-2</v>
@@ -4886,7 +5122,7 @@
         <v>3.1843039952689801E-9</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20">
       <c r="A59" s="1" t="s">
         <v>102</v>
       </c>
@@ -4897,8 +5133,12 @@
         <v>94190</v>
       </c>
       <c r="D59" s="13">
+        <f>(B59/C59)</f>
+        <v>2.1233676611105213E-4</v>
+      </c>
+      <c r="E59" s="17">
         <f t="shared" si="0"/>
-        <v>2.1233676611105213E-4</v>
+        <v>3.4929554002624021E-2</v>
       </c>
       <c r="F59" s="2">
         <v>0.11347237355725801</v>
@@ -4946,7 +5186,7 @@
         <v>1.9282359159603799E-9</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20">
       <c r="A60" s="1" t="s">
         <v>146</v>
       </c>
@@ -4957,8 +5197,12 @@
         <v>196521</v>
       </c>
       <c r="D60" s="13">
+        <f>(B60/C60)</f>
+        <v>2.0354058853761176E-4</v>
+      </c>
+      <c r="E60" s="17">
         <f t="shared" si="0"/>
-        <v>2.0354058853761176E-4</v>
+        <v>3.3459203761095395E-2</v>
       </c>
       <c r="F60" s="2">
         <v>0.11190711261949</v>
@@ -5006,7 +5250,7 @@
         <v>1.96548975044432E-9</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20">
       <c r="A61" s="1" t="s">
         <v>155</v>
       </c>
@@ -5017,8 +5261,12 @@
         <v>218628</v>
       </c>
       <c r="D61" s="13">
+        <f>(B61/C61)</f>
+        <v>1.1434948862908684E-4</v>
+      </c>
+      <c r="E61" s="17">
         <f t="shared" si="0"/>
-        <v>1.1434948862908684E-4</v>
+        <v>1.8550210144518069E-2</v>
       </c>
       <c r="F61" s="2">
         <v>0.11802214238174601</v>
@@ -5066,7 +5314,7 @@
         <v>1.74866402968426E-9</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20">
       <c r="A62" s="1" t="s">
         <v>212</v>
       </c>
@@ -5077,8 +5325,12 @@
         <v>47475</v>
       </c>
       <c r="D62" s="13">
+        <f>(B62/C62)</f>
+        <v>8.4254870984728808E-5</v>
+      </c>
+      <c r="E62" s="17">
         <f t="shared" si="0"/>
-        <v>8.4254870984728808E-5</v>
+        <v>1.3519658185710076E-2</v>
       </c>
       <c r="F62" s="2">
         <v>8.9763103561945903E-2</v>
@@ -5126,7 +5378,7 @@
         <v>2.0069899468540099E-9</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20">
       <c r="A63" s="1" t="s">
         <v>266</v>
       </c>
@@ -5137,8 +5389,12 @@
         <v>77421</v>
       </c>
       <c r="D63" s="13">
+        <f>(B63/C63)</f>
+        <v>1.2916392193332558E-5</v>
+      </c>
+      <c r="E63" s="17">
         <f t="shared" si="0"/>
-        <v>1.2916392193332558E-5</v>
+        <v>1.5948705554635074E-3</v>
       </c>
       <c r="F63" s="2">
         <v>0.121815051434954</v>
@@ -5186,7 +5442,7 @@
         <v>2.2549451975752802E-9</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20">
       <c r="A64" s="1" t="s">
         <v>3</v>
       </c>
@@ -5197,8 +5453,12 @@
         <v>94536</v>
       </c>
       <c r="D64" s="13">
+        <f>(B64/C64)</f>
+        <v>4.0196327325040199E-4</v>
+      </c>
+      <c r="E64" s="17">
         <f t="shared" si="0"/>
-        <v>4.0196327325040199E-4</v>
+        <v>6.6627115613299953E-2</v>
       </c>
       <c r="F64" s="2">
         <v>9.1807934584819395E-2</v>
@@ -5246,7 +5506,7 @@
         <v>2.3565716947389799E-9</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20">
       <c r="A65" s="1" t="s">
         <v>26</v>
       </c>
@@ -5257,8 +5517,12 @@
         <v>242865</v>
       </c>
       <c r="D65" s="13">
+        <f>(B65/C65)</f>
+        <v>2.6352088608897948E-4</v>
+      </c>
+      <c r="E65" s="17">
         <f t="shared" si="0"/>
-        <v>2.6352088608897948E-4</v>
+        <v>4.3485382093136321E-2</v>
       </c>
       <c r="F65" s="2">
         <v>8.3259431104236295E-2</v>
@@ -5306,7 +5570,7 @@
         <v>2.3752642495555298E-9</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20">
       <c r="A66" s="1" t="s">
         <v>60</v>
       </c>
@@ -5317,8 +5581,12 @@
         <v>122994</v>
       </c>
       <c r="D66" s="13">
+        <f>(B66/C66)</f>
+        <v>4.7969819665999967E-4</v>
+      </c>
+      <c r="E66" s="17">
         <f t="shared" si="0"/>
-        <v>4.7969819665999967E-4</v>
+        <v>7.9621119253656975E-2</v>
       </c>
       <c r="F66" s="2">
         <v>9.6161214673856701E-2</v>
@@ -5366,7 +5634,7 @@
         <v>2.6499904168463198E-9</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20">
       <c r="A67" s="1" t="s">
         <v>68</v>
       </c>
@@ -5377,8 +5645,12 @@
         <v>172636</v>
       </c>
       <c r="D67" s="13">
-        <f t="shared" ref="D67:D130" si="1">(B67/C67)</f>
+        <f>(B67/C67)</f>
         <v>4.170624898630645E-4</v>
+      </c>
+      <c r="E67" s="17">
+        <f t="shared" ref="E67:E130" si="1">(D67-0.000003375288165)/(0.005985744199327-0.000003375288165)</f>
+        <v>6.9151068388009343E-2</v>
       </c>
       <c r="F67" s="2">
         <v>8.2396067790226596E-2</v>
@@ -5426,7 +5698,7 @@
         <v>2.6707222451854502E-9</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20">
       <c r="A68" s="1" t="s">
         <v>188</v>
       </c>
@@ -5437,8 +5709,12 @@
         <v>596932</v>
       </c>
       <c r="D68" s="13">
+        <f>(B68/C68)</f>
+        <v>1.3904431325511113E-3</v>
+      </c>
+      <c r="E68" s="17">
         <f t="shared" si="1"/>
-        <v>1.3904431325511113E-3</v>
+        <v>0.23185929603874775</v>
       </c>
       <c r="F68" s="2">
         <v>9.1615557191055394E-2</v>
@@ -5486,7 +5762,7 @@
         <v>2.61548063379481E-9</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20">
       <c r="A69" s="1" t="s">
         <v>10</v>
       </c>
@@ -5497,8 +5773,12 @@
         <v>591756</v>
       </c>
       <c r="D69" s="13">
+        <f>(B69/C69)</f>
+        <v>1.1491222733694293E-4</v>
+      </c>
+      <c r="E69" s="17">
         <f t="shared" si="1"/>
-        <v>1.1491222733694293E-4</v>
+        <v>1.8644276344080939E-2</v>
       </c>
       <c r="F69" s="2">
         <v>9.0888387374122304E-2</v>
@@ -5546,7 +5826,7 @@
         <v>2.2704607682449601E-9</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20">
       <c r="A70" s="1" t="s">
         <v>96</v>
       </c>
@@ -5557,8 +5837,12 @@
         <v>105017</v>
       </c>
       <c r="D70" s="13">
+        <f>(B70/C70)</f>
+        <v>8.5700410409743187E-5</v>
+      </c>
+      <c r="E70" s="17">
         <f t="shared" si="1"/>
-        <v>8.5700410409743187E-5</v>
+        <v>1.376129146618485E-2</v>
       </c>
       <c r="F70" s="2">
         <v>9.1215789436329894E-2</v>
@@ -5606,7 +5890,7 @@
         <v>2.22312723636315E-9</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20">
       <c r="A71" s="1" t="s">
         <v>111</v>
       </c>
@@ -5617,8 +5901,12 @@
         <v>51621</v>
       </c>
       <c r="D71" s="13">
+        <f>(B71/C71)</f>
+        <v>9.6859805118072108E-5</v>
+      </c>
+      <c r="E71" s="17">
         <f t="shared" si="1"/>
-        <v>9.6859805118072108E-5</v>
+        <v>1.5626672032653686E-2</v>
       </c>
       <c r="F71" s="2">
         <v>8.7221665146709496E-2</v>
@@ -5666,7 +5954,7 @@
         <v>2.2102395228200398E-9</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20">
       <c r="A72" s="1" t="s">
         <v>135</v>
       </c>
@@ -5677,8 +5965,12 @@
         <v>283538</v>
       </c>
       <c r="D72" s="13">
+        <f>(B72/C72)</f>
+        <v>8.4644738976786174E-5</v>
+      </c>
+      <c r="E72" s="17">
         <f t="shared" si="1"/>
-        <v>8.4644738976786174E-5</v>
+        <v>1.3584827685927614E-2</v>
       </c>
       <c r="F72" s="2">
         <v>9.86747027359762E-2</v>
@@ -5726,7 +6018,7 @@
         <v>2.52531757288055E-9</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20">
       <c r="A73" s="1" t="s">
         <v>154</v>
       </c>
@@ -5737,8 +6029,12 @@
         <v>117571</v>
       </c>
       <c r="D73" s="13">
+        <f>(B73/C73)</f>
+        <v>8.5054988049774172E-6</v>
+      </c>
+      <c r="E73" s="17">
         <f t="shared" si="1"/>
-        <v>8.5054988049774172E-6</v>
+        <v>8.5755504485946832E-4</v>
       </c>
       <c r="F73" s="2">
         <v>8.1146087078565896E-2</v>
@@ -5786,7 +6082,7 @@
         <v>2.3484773845238802E-9</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20">
       <c r="A74" s="1" t="s">
         <v>257</v>
       </c>
@@ -5797,8 +6093,12 @@
         <v>36441</v>
       </c>
       <c r="D74" s="13">
+        <f>(B74/C74)</f>
+        <v>5.4883235915589584E-5</v>
+      </c>
+      <c r="E74" s="17">
         <f t="shared" si="1"/>
-        <v>5.4883235915589584E-5</v>
+        <v>8.6099584488153556E-3</v>
       </c>
       <c r="F74" s="2">
         <v>7.8283642367367803E-2</v>
@@ -5846,7 +6146,7 @@
         <v>2.4202437866589501E-9</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20">
       <c r="A75" s="1" t="s">
         <v>200</v>
       </c>
@@ -5857,8 +6157,12 @@
         <v>55342</v>
       </c>
       <c r="D75" s="13">
+        <f>(B75/C75)</f>
+        <v>9.0347295001987635E-5</v>
+      </c>
+      <c r="E75" s="17">
         <f t="shared" si="1"/>
-        <v>9.0347295001987635E-5</v>
+        <v>1.4538054762004708E-2</v>
       </c>
       <c r="F75" s="2">
         <v>8.8300369147425395E-2</v>
@@ -5906,7 +6210,7 @@
         <v>2.1761825047005901E-9</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20">
       <c r="A76" s="1" t="s">
         <v>20</v>
       </c>
@@ -5917,8 +6221,12 @@
         <v>100901</v>
       </c>
       <c r="D76" s="13">
+        <f>(B76/C76)</f>
+        <v>5.0544593215131662E-4</v>
+      </c>
+      <c r="E76" s="17">
         <f t="shared" si="1"/>
-        <v>5.0544593215131662E-4</v>
+        <v>8.392505568313334E-2</v>
       </c>
       <c r="F76" s="2">
         <v>8.7153129717740502E-2</v>
@@ -5966,7 +6274,7 @@
         <v>2.61042455581632E-9</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20">
       <c r="A77" s="1" t="s">
         <v>56</v>
       </c>
@@ -5977,8 +6285,12 @@
         <v>119082</v>
       </c>
       <c r="D77" s="13">
+        <f>(B77/C77)</f>
+        <v>3.9468601467896073E-4</v>
+      </c>
+      <c r="E77" s="17">
         <f t="shared" si="1"/>
-        <v>3.9468601467896073E-4</v>
+        <v>6.5410664625487558E-2</v>
       </c>
       <c r="F77" s="2">
         <v>8.1341755211354894E-2</v>
@@ -6026,7 +6338,7 @@
         <v>2.6040298242853098E-9</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
@@ -6037,8 +6349,12 @@
         <v>101666</v>
       </c>
       <c r="D78" s="13">
+        <f>(B78/C78)</f>
+        <v>4.2295359313831565E-4</v>
+      </c>
+      <c r="E78" s="17">
         <f t="shared" si="1"/>
-        <v>4.2295359313831565E-4</v>
+        <v>7.0135812619388893E-2</v>
       </c>
       <c r="F78" s="2">
         <v>7.0545342759563201E-2</v>
@@ -6086,7 +6402,7 @@
         <v>2.5749052316125098E-9</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20">
       <c r="A79" s="1" t="s">
         <v>122</v>
       </c>
@@ -6097,8 +6413,12 @@
         <v>107587</v>
       </c>
       <c r="D79" s="13">
+        <f>(B79/C79)</f>
+        <v>2.7884409826466023E-4</v>
+      </c>
+      <c r="E79" s="17">
         <f t="shared" si="1"/>
-        <v>2.7884409826466023E-4</v>
+        <v>4.6046777487373951E-2</v>
       </c>
       <c r="F79" s="2">
         <v>6.8848039827214796E-2</v>
@@ -6146,7 +6466,7 @@
         <v>2.5599021127493601E-9</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20">
       <c r="A80" s="1" t="s">
         <v>175</v>
       </c>
@@ -6157,8 +6477,12 @@
         <v>39359</v>
       </c>
       <c r="D80" s="13">
+        <f>(B80/C80)</f>
+        <v>5.335501410096801E-4</v>
+      </c>
+      <c r="E80" s="17">
         <f t="shared" si="1"/>
-        <v>5.335501410096801E-4</v>
+        <v>8.8622895163732104E-2</v>
       </c>
       <c r="F80" s="2">
         <v>7.0268428646234796E-2</v>
@@ -6206,7 +6530,7 @@
         <v>2.4894902787143602E-9</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20">
       <c r="A81" s="1" t="s">
         <v>250</v>
       </c>
@@ -6217,8 +6541,12 @@
         <v>126062</v>
       </c>
       <c r="D81" s="13">
+        <f>(B81/C81)</f>
+        <v>3.2523678824705304E-4</v>
+      </c>
+      <c r="E81" s="17">
         <f t="shared" si="1"/>
-        <v>3.2523678824705304E-4</v>
+        <v>5.3801680381415237E-2</v>
       </c>
       <c r="F81" s="2">
         <v>8.7824464746249206E-2</v>
@@ -6266,7 +6594,7 @@
         <v>2.6174075758520498E-9</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20">
       <c r="A82" s="1" t="s">
         <v>208</v>
       </c>
@@ -6277,8 +6605,12 @@
         <v>288685</v>
       </c>
       <c r="D82" s="13">
+        <f>(B82/C82)</f>
+        <v>3.9143010547828947E-4</v>
+      </c>
+      <c r="E82" s="17">
         <f t="shared" si="1"/>
-        <v>3.9143010547828947E-4</v>
+        <v>6.4866413802941933E-2</v>
       </c>
       <c r="F82" s="2">
         <v>7.0278310777543804E-2</v>
@@ -6326,7 +6658,7 @@
         <v>2.4385008167814102E-9</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20">
       <c r="A83" s="1" t="s">
         <v>225</v>
       </c>
@@ -6337,8 +6669,12 @@
         <v>178787</v>
       </c>
       <c r="D83" s="13">
+        <f>(B83/C83)</f>
+        <v>4.7542606565354302E-4</v>
+      </c>
+      <c r="E83" s="17">
         <f t="shared" si="1"/>
-        <v>4.7542606565354302E-4</v>
+        <v>7.8906998966209368E-2</v>
       </c>
       <c r="F83" s="2">
         <v>7.6128769932183205E-2</v>
@@ -6386,7 +6722,7 @@
         <v>2.48344435347352E-9</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20">
       <c r="A84" s="1" t="s">
         <v>233</v>
       </c>
@@ -6397,8 +6733,12 @@
         <v>676105</v>
       </c>
       <c r="D84" s="13">
+        <f>(B84/C84)</f>
+        <v>4.6442490441573426E-4</v>
+      </c>
+      <c r="E84" s="17">
         <f t="shared" si="1"/>
-        <v>4.6442490441573426E-4</v>
+        <v>7.7068068368451911E-2</v>
       </c>
       <c r="F84" s="2">
         <v>8.1410350907960199E-2</v>
@@ -6446,7 +6786,7 @@
         <v>2.4992472568804499E-9</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20">
       <c r="A85" s="1" t="s">
         <v>15</v>
       </c>
@@ -6457,8 +6797,12 @@
         <v>38510</v>
       </c>
       <c r="D85" s="13">
+        <f>(B85/C85)</f>
+        <v>1.2983640612827837E-4</v>
+      </c>
+      <c r="E85" s="17">
         <f t="shared" si="1"/>
-        <v>1.2983640612827837E-4</v>
+        <v>2.113897017071702E-2</v>
       </c>
       <c r="F85" s="2">
         <v>9.2208215380238101E-2</v>
@@ -6506,7 +6850,7 @@
         <v>2.0898057186573802E-9</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20">
       <c r="A86" s="1" t="s">
         <v>39</v>
       </c>
@@ -6517,8 +6861,12 @@
         <v>84103</v>
       </c>
       <c r="D86" s="13">
+        <f>(B86/C86)</f>
+        <v>2.1402328097689738E-4</v>
+      </c>
+      <c r="E86" s="17">
         <f t="shared" si="1"/>
-        <v>2.1402328097689738E-4</v>
+        <v>3.5211468222708063E-2</v>
       </c>
       <c r="F86" s="2">
         <v>9.40908680915227E-2</v>
@@ -6566,7 +6914,7 @@
         <v>1.69867016942935E-9</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20">
       <c r="A87" s="1" t="s">
         <v>45</v>
       </c>
@@ -6577,8 +6925,12 @@
         <v>81983</v>
       </c>
       <c r="D87" s="13">
+        <f>(B87/C87)</f>
+        <v>5.7328958442603951E-4</v>
+      </c>
+      <c r="E87" s="17">
         <f t="shared" si="1"/>
-        <v>5.7328958442603951E-4</v>
+        <v>9.5265655582972203E-2</v>
       </c>
       <c r="F87" s="2">
         <v>8.0330008443159004E-2</v>
@@ -6626,7 +6978,7 @@
         <v>1.67032428885439E-9</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20">
       <c r="A88" s="1" t="s">
         <v>50</v>
       </c>
@@ -6637,8 +6989,12 @@
         <v>228241</v>
       </c>
       <c r="D88" s="13">
+        <f>(B88/C88)</f>
+        <v>1.8401601815624713E-4</v>
+      </c>
+      <c r="E88" s="17">
         <f t="shared" si="1"/>
-        <v>1.8401601815624713E-4</v>
+        <v>3.0195518309511934E-2</v>
       </c>
       <c r="F88" s="2">
         <v>0.10115251905531999</v>
@@ -6686,7 +7042,7 @@
         <v>1.9574656435741402E-9</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
@@ -6697,8 +7053,12 @@
         <v>308858</v>
       </c>
       <c r="D89" s="13">
+        <f>(B89/C89)</f>
+        <v>4.2090539989250721E-5</v>
+      </c>
+      <c r="E89" s="17">
         <f t="shared" si="1"/>
-        <v>4.2090539989250721E-5</v>
+        <v>6.4715587418915574E-3</v>
       </c>
       <c r="F89" s="2">
         <v>9.1088281508066707E-2</v>
@@ -6746,7 +7106,7 @@
         <v>1.8942066321208099E-9</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20">
       <c r="A90" s="1" t="s">
         <v>120</v>
       </c>
@@ -6757,8 +7117,12 @@
         <v>43198</v>
       </c>
       <c r="D90" s="13">
+        <f>(B90/C90)</f>
+        <v>5.3243205703967778E-4</v>
+      </c>
+      <c r="E90" s="17">
         <f t="shared" si="1"/>
-        <v>5.3243205703967778E-4</v>
+        <v>8.8435998637187874E-2</v>
       </c>
       <c r="F90" s="2">
         <v>9.2970321701117797E-2</v>
@@ -6806,7 +7170,7 @@
         <v>1.75226286145169E-9</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20">
       <c r="A91" s="1" t="s">
         <v>124</v>
       </c>
@@ -6817,8 +7181,12 @@
         <v>311214</v>
       </c>
       <c r="D91" s="13">
+        <f>(B91/C91)</f>
+        <v>2.0885949860867441E-4</v>
+      </c>
+      <c r="E91" s="17">
         <f t="shared" si="1"/>
-        <v>2.0885949860867441E-4</v>
+        <v>3.4348301399513941E-2</v>
       </c>
       <c r="F91" s="2">
         <v>8.3340551290148501E-2</v>
@@ -6866,7 +7234,7 @@
         <v>1.7199194075419799E-9</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20">
       <c r="A92" s="1" t="s">
         <v>130</v>
       </c>
@@ -6877,8 +7245,12 @@
         <v>138133</v>
       </c>
       <c r="D92" s="13">
+        <f>(B92/C92)</f>
+        <v>4.4884278195652017E-4</v>
+      </c>
+      <c r="E92" s="17">
         <f t="shared" si="1"/>
-        <v>4.4884278195652017E-4</v>
+        <v>7.4463394084634218E-2</v>
       </c>
       <c r="F92" s="2">
         <v>8.6145597382635802E-2</v>
@@ -6926,7 +7298,7 @@
         <v>1.72255007480716E-9</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20">
       <c r="A93" s="1" t="s">
         <v>152</v>
       </c>
@@ -6937,8 +7309,12 @@
         <v>324103</v>
       </c>
       <c r="D93" s="13">
+        <f>(B93/C93)</f>
+        <v>1.234175555301864E-4</v>
+      </c>
+      <c r="E93" s="17">
         <f t="shared" si="1"/>
-        <v>1.234175555301864E-4</v>
+        <v>2.0066008824900384E-2</v>
       </c>
       <c r="F93" s="2">
         <v>7.4478344083296497E-2</v>
@@ -6986,7 +7362,7 @@
         <v>1.7201615037723101E-9</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20">
       <c r="A94" s="1" t="s">
         <v>161</v>
       </c>
@@ -6997,8 +7373,12 @@
         <v>103975</v>
       </c>
       <c r="D94" s="13">
+        <f>(B94/C94)</f>
+        <v>1.5388314498677565E-4</v>
+      </c>
+      <c r="E94" s="17">
         <f t="shared" si="1"/>
-        <v>1.5388314498677565E-4</v>
+        <v>2.5158571638896371E-2</v>
       </c>
       <c r="F94" s="2">
         <v>9.6118548528003098E-2</v>
@@ -7046,7 +7426,7 @@
         <v>1.7472311648453E-9</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20">
       <c r="A95" s="1" t="s">
         <v>253</v>
       </c>
@@ -7057,8 +7437,12 @@
         <v>738724</v>
       </c>
       <c r="D95" s="13">
+        <f>(B95/C95)</f>
+        <v>3.9798355001326613E-4</v>
+      </c>
+      <c r="E95" s="17">
         <f t="shared" si="1"/>
-        <v>3.9798355001326613E-4</v>
+        <v>6.5961873583556457E-2</v>
       </c>
       <c r="F95" s="2">
         <v>0.10115251905531999</v>
@@ -7106,7 +7490,7 @@
         <v>1.74845023752039E-9</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20">
       <c r="A96" s="1" t="s">
         <v>260</v>
       </c>
@@ -7117,8 +7501,12 @@
         <v>95848</v>
       </c>
       <c r="D96" s="13">
+        <f>(B96/C96)</f>
+        <v>1.0433185877639596E-5</v>
+      </c>
+      <c r="E96" s="17">
         <f t="shared" si="1"/>
-        <v>1.0433185877639596E-5</v>
+        <v>1.1797830955344224E-3</v>
       </c>
       <c r="F96" s="2">
         <v>0.111386313906657</v>
@@ -7166,7 +7554,7 @@
         <v>2.4893202385651999E-9</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20">
       <c r="A97" s="1" t="s">
         <v>262</v>
       </c>
@@ -7177,8 +7565,12 @@
         <v>21205</v>
       </c>
       <c r="D97" s="13">
+        <f>(B97/C97)</f>
+        <v>4.7158688988446121E-5</v>
+      </c>
+      <c r="E97" s="17">
         <f t="shared" si="1"/>
-        <v>4.7158688988446121E-5</v>
+        <v>7.3187396955333777E-3</v>
       </c>
       <c r="F97" s="2">
         <v>7.7311543578012204E-2</v>
@@ -7226,7 +7618,7 @@
         <v>1.76625307614272E-9</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20">
       <c r="A98" s="1" t="s">
         <v>210</v>
       </c>
@@ -7237,8 +7629,12 @@
         <v>65705</v>
       </c>
       <c r="D98" s="13">
+        <f>(B98/C98)</f>
+        <v>4.565862567536717E-5</v>
+      </c>
+      <c r="E98" s="17">
         <f t="shared" si="1"/>
-        <v>4.565862567536717E-5</v>
+        <v>7.0679923184734129E-3</v>
       </c>
       <c r="F98" s="2">
         <v>0.111521228789838</v>
@@ -7286,7 +7682,7 @@
         <v>2.5136486952536098E-9</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20">
       <c r="A99" s="1" t="s">
         <v>5</v>
       </c>
@@ -7297,8 +7693,12 @@
         <v>91257</v>
       </c>
       <c r="D99" s="13">
+        <f>(B99/C99)</f>
+        <v>2.5203546029345695E-4</v>
+      </c>
+      <c r="E99" s="17">
         <f t="shared" si="1"/>
-        <v>2.5203546029345695E-4</v>
+        <v>4.1565502867016907E-2</v>
       </c>
       <c r="F99" s="2">
         <v>6.9800557278432096E-2</v>
@@ -7346,7 +7746,7 @@
         <v>2.3632657513640801E-9</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20">
       <c r="A100" s="1" t="s">
         <v>28</v>
       </c>
@@ -7357,8 +7757,12 @@
         <v>43225</v>
       </c>
       <c r="D100" s="13">
+        <f>(B100/C100)</f>
+        <v>9.2539039907460965E-5</v>
+      </c>
+      <c r="E100" s="17">
         <f t="shared" si="1"/>
-        <v>9.2539039907460965E-5</v>
+        <v>1.4904422155594217E-2</v>
       </c>
       <c r="F100" s="2">
         <v>5.7775713599822802E-2</v>
@@ -7406,7 +7810,7 @@
         <v>2.59941923967477E-9</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20">
       <c r="A101" s="1" t="s">
         <v>52</v>
       </c>
@@ -7417,8 +7821,12 @@
         <v>139016</v>
       </c>
       <c r="D101" s="13">
+        <f>(B101/C101)</f>
+        <v>1.2228808194740174E-4</v>
+      </c>
+      <c r="E101" s="17">
         <f t="shared" si="1"/>
-        <v>1.2228808194740174E-4</v>
+        <v>1.9877208435028527E-2</v>
       </c>
       <c r="F101" s="2">
         <v>6.1623871308812597E-2</v>
@@ -7466,7 +7874,7 @@
         <v>3.1150216201476501E-9</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20">
       <c r="A102" s="1" t="s">
         <v>123</v>
       </c>
@@ -7477,8 +7885,12 @@
         <v>956971</v>
       </c>
       <c r="D102" s="13">
+        <f>(B102/C102)</f>
+        <v>1.7032909043220745E-4</v>
+      </c>
+      <c r="E102" s="17">
         <f t="shared" si="1"/>
-        <v>1.7032909043220745E-4</v>
+        <v>2.7907640726686441E-2</v>
       </c>
       <c r="F102" s="2">
         <v>7.1122409709302795E-2</v>
@@ -7526,7 +7938,7 @@
         <v>3.0293015147822101E-9</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20">
       <c r="A103" s="1" t="s">
         <v>126</v>
       </c>
@@ -7537,8 +7949,12 @@
         <v>94720</v>
       </c>
       <c r="D103" s="13">
+        <f>(B103/C103)</f>
+        <v>7.3902027027027031E-5</v>
+      </c>
+      <c r="E103" s="17">
         <f t="shared" si="1"/>
-        <v>7.3902027027027031E-5</v>
+        <v>1.1789098918730524E-2</v>
       </c>
       <c r="F103" s="2">
         <v>8.4065772622404597E-2</v>
@@ -7586,7 +8002,7 @@
         <v>2.9741434409040599E-9</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20">
       <c r="A104" s="1" t="s">
         <v>127</v>
       </c>
@@ -7597,8 +8013,12 @@
         <v>147399</v>
       </c>
       <c r="D104" s="13">
+        <f>(B104/C104)</f>
+        <v>2.1031350280531076E-4</v>
+      </c>
+      <c r="E104" s="17">
         <f t="shared" si="1"/>
-        <v>2.1031350280531076E-4</v>
+        <v>3.4591349633119772E-2</v>
       </c>
       <c r="F104" s="2">
         <v>7.8061816385677205E-2</v>
@@ -7646,7 +8066,7 @@
         <v>2.4376665549292301E-9</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20">
       <c r="A105" s="1" t="s">
         <v>151</v>
       </c>
@@ -7657,8 +8077,12 @@
         <v>46975</v>
       </c>
       <c r="D105" s="13">
+        <f>(B105/C105)</f>
+        <v>2.1287919105907398E-5</v>
+      </c>
+      <c r="E105" s="17">
         <f t="shared" si="1"/>
-        <v>2.1287919105907398E-5</v>
+        <v>2.9942371002038546E-3</v>
       </c>
       <c r="F105" s="2">
         <v>6.1780243483747201E-2</v>
@@ -7706,7 +8130,7 @@
         <v>2.9353671233771298E-9</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20">
       <c r="A106" s="1" t="s">
         <v>159</v>
       </c>
@@ -7717,8 +8141,12 @@
         <v>54226</v>
       </c>
       <c r="D106" s="13">
+        <f>(B106/C106)</f>
+        <v>5.5324014310478367E-5</v>
+      </c>
+      <c r="E106" s="17">
         <f t="shared" si="1"/>
-        <v>5.5324014310478367E-5</v>
+        <v>8.68363802315026E-3</v>
       </c>
       <c r="F106" s="2">
         <v>5.8397258074825799E-2</v>
@@ -7766,7 +8194,7 @@
         <v>3.1185794933656401E-9</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20">
       <c r="A107" s="1" t="s">
         <v>169</v>
       </c>
@@ -7777,8 +8205,12 @@
         <v>125074</v>
       </c>
       <c r="D107" s="13">
+        <f>(B107/C107)</f>
+        <v>5.5966867614372293E-5</v>
+      </c>
+      <c r="E107" s="17">
         <f t="shared" si="1"/>
-        <v>5.5966867614372293E-5</v>
+        <v>8.7910960073435251E-3</v>
       </c>
       <c r="F107" s="2">
         <v>5.9546557475879003E-2</v>
@@ -7826,7 +8258,7 @@
         <v>3.1443331454765101E-9</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20">
       <c r="A108" s="1" t="s">
         <v>67</v>
       </c>
@@ -7837,8 +8269,12 @@
         <v>200649</v>
       </c>
       <c r="D108" s="13">
+        <f>(B108/C108)</f>
+        <v>8.9708894636903244E-5</v>
+      </c>
+      <c r="E108" s="17">
         <f t="shared" si="1"/>
-        <v>8.9708894636903244E-5</v>
+        <v>1.443134112154478E-2</v>
       </c>
       <c r="F108" s="2">
         <v>8.8220240147426299E-2</v>
@@ -7886,7 +8322,7 @@
         <v>2.5312064991179402E-9</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20">
       <c r="A109" s="1" t="s">
         <v>183</v>
       </c>
@@ -7897,8 +8333,12 @@
         <v>92310</v>
       </c>
       <c r="D109" s="13">
+        <f>(B109/C109)</f>
+        <v>5.4165312533853317E-5</v>
+      </c>
+      <c r="E109" s="17">
         <f t="shared" si="1"/>
-        <v>5.4165312533853317E-5</v>
+        <v>8.4899519108707043E-3</v>
       </c>
       <c r="F109" s="2">
         <v>6.7517606296669905E-2</v>
@@ -7946,7 +8386,7 @@
         <v>3.1998149128110899E-9</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20">
       <c r="A110" s="1" t="s">
         <v>193</v>
       </c>
@@ -7957,8 +8397,12 @@
         <v>167544</v>
       </c>
       <c r="D110" s="13">
+        <f>(B110/C110)</f>
+        <v>7.7591558038485412E-5</v>
+      </c>
+      <c r="E110" s="17">
         <f t="shared" si="1"/>
-        <v>7.7591558038485412E-5</v>
+        <v>1.2405833036309663E-2</v>
       </c>
       <c r="F110" s="2">
         <v>7.3862626148283997E-2</v>
@@ -8006,7 +8450,7 @@
         <v>2.8781283952462201E-9</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20">
       <c r="A111" s="1" t="s">
         <v>196</v>
       </c>
@@ -8017,8 +8461,12 @@
         <v>140686</v>
       </c>
       <c r="D111" s="13">
+        <f>(B111/C111)</f>
+        <v>1.6348463955190992E-4</v>
+      </c>
+      <c r="E111" s="17">
         <f t="shared" si="1"/>
-        <v>1.6348463955190992E-4</v>
+        <v>2.6763536947408129E-2</v>
       </c>
       <c r="F111" s="2">
         <v>6.5113086646046203E-2</v>
@@ -8066,7 +8514,7 @@
         <v>2.6427764520579401E-9</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20">
       <c r="A112" s="1" t="s">
         <v>11</v>
       </c>
@@ -8077,8 +8525,12 @@
         <v>605992</v>
       </c>
       <c r="D112" s="13">
+        <f>(B112/C112)</f>
+        <v>8.0859153256148596E-5</v>
+      </c>
+      <c r="E112" s="17">
         <f t="shared" si="1"/>
-        <v>8.0859153256148596E-5</v>
+        <v>1.2952037268477034E-2</v>
       </c>
       <c r="F112" s="2">
         <v>8.2936677891700603E-2</v>
@@ -8126,7 +8578,7 @@
         <v>2.30782251799353E-9</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20">
       <c r="A113" s="1" t="s">
         <v>66</v>
       </c>
@@ -8137,8 +8589,12 @@
         <v>51404</v>
       </c>
       <c r="D113" s="13">
+        <f>(B113/C113)</f>
+        <v>1.7508365107773714E-4</v>
+      </c>
+      <c r="E113" s="17">
         <f t="shared" si="1"/>
-        <v>1.7508365107773714E-4</v>
+        <v>2.8702402921418124E-2</v>
       </c>
       <c r="F113" s="2">
         <v>7.5023227061620998E-2</v>
@@ -8186,7 +8642,7 @@
         <v>2.6695675120013198E-9</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20">
       <c r="A114" s="1" t="s">
         <v>95</v>
       </c>
@@ -8197,8 +8653,12 @@
         <v>86731</v>
       </c>
       <c r="D114" s="13">
+        <f>(B114/C114)</f>
+        <v>8.0709319620435603E-5</v>
+      </c>
+      <c r="E114" s="17">
         <f t="shared" si="1"/>
-        <v>8.0709319620435603E-5</v>
+        <v>1.2926991398197547E-2</v>
       </c>
       <c r="F114" s="2">
         <v>8.5573531055092605E-2</v>
@@ -8246,7 +8706,7 @@
         <v>2.8147347385420299E-9</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20">
       <c r="A115" s="1" t="s">
         <v>207</v>
       </c>
@@ -8257,8 +8717,12 @@
         <v>149941</v>
       </c>
       <c r="D115" s="13">
+        <f>(B115/C115)</f>
+        <v>8.0031479048425718E-5</v>
+      </c>
+      <c r="E115" s="17">
         <f t="shared" si="1"/>
-        <v>8.0031479048425718E-5</v>
+        <v>1.2813685017050581E-2</v>
       </c>
       <c r="F115" s="2">
         <v>8.40185390366507E-2</v>
@@ -8306,7 +8770,7 @@
         <v>2.28031049472548E-9</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20">
       <c r="A116" s="1" t="s">
         <v>235</v>
       </c>
@@ -8317,8 +8781,12 @@
         <v>177601</v>
       </c>
       <c r="D116" s="13">
+        <f>(B116/C116)</f>
+        <v>7.3197786048501975E-5</v>
+      </c>
+      <c r="E116" s="17">
         <f t="shared" si="1"/>
-        <v>7.3197786048501975E-5</v>
+        <v>1.1671379502060803E-2</v>
       </c>
       <c r="F116" s="2">
         <v>7.4814501223404301E-2</v>
@@ -8366,7 +8834,7 @@
         <v>2.8084773719733099E-9</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20">
       <c r="A117" s="1" t="s">
         <v>268</v>
       </c>
@@ -8377,8 +8845,12 @@
         <v>76901</v>
       </c>
       <c r="D117" s="13">
+        <f>(B117/C117)</f>
+        <v>3.9011196213313223E-4</v>
+      </c>
+      <c r="E117" s="17">
         <f t="shared" si="1"/>
-        <v>3.9011196213313223E-4</v>
+        <v>6.4646075778869591E-2</v>
       </c>
       <c r="F117" s="2">
         <v>7.1549223018226596E-2</v>
@@ -8426,7 +8898,7 @@
         <v>2.5789495625670398E-9</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20">
       <c r="A118" s="1" t="s">
         <v>12</v>
       </c>
@@ -8437,8 +8909,12 @@
         <v>42105</v>
       </c>
       <c r="D118" s="13">
+        <f>(B118/C118)</f>
+        <v>1.1875074219213871E-4</v>
+      </c>
+      <c r="E118" s="17">
         <f t="shared" si="1"/>
-        <v>1.1875074219213871E-4</v>
+        <v>1.9285914282529338E-2</v>
       </c>
       <c r="F118" s="2">
         <v>9.6270665310112996E-2</v>
@@ -8486,7 +8962,7 @@
         <v>2.0732635642653598E-9</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20">
       <c r="A119" s="1" t="s">
         <v>276</v>
       </c>
@@ -8497,8 +8973,12 @@
         <v>2243249</v>
       </c>
       <c r="D119" s="13">
+        <f>(B119/C119)</f>
+        <v>1.9569829296703131E-4</v>
+      </c>
+      <c r="E119" s="17">
         <f t="shared" si="1"/>
-        <v>1.9569829296703131E-4</v>
+        <v>3.2148302396261784E-2</v>
       </c>
       <c r="F119" s="2">
         <v>9.86398696500385E-2</v>
@@ -8546,7 +9026,7 @@
         <v>2.1279536903648999E-9</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20">
       <c r="A120" s="1" t="s">
         <v>97</v>
       </c>
@@ -8557,8 +9037,12 @@
         <v>319727</v>
       </c>
       <c r="D120" s="13">
+        <f>(B120/C120)</f>
+        <v>2.1893678044081356E-5</v>
+      </c>
+      <c r="E120" s="17">
         <f t="shared" si="1"/>
-        <v>2.1893678044081356E-5</v>
+        <v>3.0954944695118095E-3</v>
       </c>
       <c r="F120" s="2">
         <v>9.6313182057277694E-2</v>
@@ -8606,7 +9090,7 @@
         <v>2.2466432533439999E-9</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20">
       <c r="A121" s="1" t="s">
         <v>99</v>
       </c>
@@ -8617,10 +9101,13 @@
         <v>33049</v>
       </c>
       <c r="D121" s="13">
+        <f>(B121/C121)</f>
+        <v>4.5387152410057794E-4</v>
+      </c>
+      <c r="E121" s="17">
         <f t="shared" si="1"/>
-        <v>4.5387152410057794E-4</v>
-      </c>
-      <c r="E121" s="8"/>
+        <v>7.5303987872602576E-2</v>
+      </c>
       <c r="F121" s="2">
         <v>8.6896872392434099E-2</v>
       </c>
@@ -8667,7 +9154,7 @@
         <v>2.0858405992886401E-9</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20">
       <c r="A122" s="1" t="s">
         <v>113</v>
       </c>
@@ -8678,8 +9165,12 @@
         <v>34511</v>
       </c>
       <c r="D122" s="13">
+        <f>(B122/C122)</f>
+        <v>1.4488134218075397E-4</v>
+      </c>
+      <c r="E122" s="17">
         <f t="shared" si="1"/>
-        <v>1.4488134218075397E-4</v>
+        <v>2.3653849523009141E-2</v>
       </c>
       <c r="F122" s="2">
         <v>8.1625181250002496E-2</v>
@@ -8727,7 +9218,7 @@
         <v>2.2880090622203899E-9</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20">
       <c r="A123" s="1" t="s">
         <v>147</v>
       </c>
@@ -8738,8 +9229,12 @@
         <v>74109</v>
       </c>
       <c r="D123" s="13">
+        <f>(B123/C123)</f>
+        <v>1.2144273974820871E-4</v>
+      </c>
+      <c r="E123" s="17">
         <f t="shared" si="1"/>
-        <v>1.2144273974820871E-4</v>
+        <v>1.9735902839912892E-2</v>
       </c>
       <c r="F123" s="2">
         <v>8.7089064277402595E-2</v>
@@ -8787,7 +9282,7 @@
         <v>2.1487380837615098E-9</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20">
       <c r="A124" s="1" t="s">
         <v>157</v>
       </c>
@@ -8798,8 +9293,12 @@
         <v>234667</v>
       </c>
       <c r="D124" s="13">
+        <f>(B124/C124)</f>
+        <v>2.5568145499793325E-5</v>
+      </c>
+      <c r="E124" s="17">
         <f t="shared" si="1"/>
-        <v>2.5568145499793325E-5</v>
+        <v>3.7097105953104188E-3</v>
       </c>
       <c r="F124" s="2">
         <v>9.7926530612845994E-2</v>
@@ -8847,7 +9346,7 @@
         <v>2.14282944895477E-9</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20">
       <c r="A125" s="1" t="s">
         <v>162</v>
       </c>
@@ -8858,8 +9357,12 @@
         <v>159797</v>
       </c>
       <c r="D125" s="13">
+        <f>(B125/C125)</f>
+        <v>4.0676608446967087E-4</v>
+      </c>
+      <c r="E125" s="17">
         <f t="shared" si="1"/>
-        <v>4.0676608446967087E-4</v>
+        <v>6.7429943270803275E-2</v>
       </c>
       <c r="F125" s="2">
         <v>8.4925417756206795E-2</v>
@@ -8907,7 +9410,7 @@
         <v>2.2565059358751301E-9</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20">
       <c r="A126" s="1" t="s">
         <v>177</v>
       </c>
@@ -8918,8 +9421,12 @@
         <v>49890</v>
       </c>
       <c r="D126" s="13">
+        <f>(B126/C126)</f>
+        <v>4.0088194026859093E-5</v>
+      </c>
+      <c r="E126" s="17">
         <f t="shared" si="1"/>
-        <v>4.0088194026859093E-5</v>
+        <v>6.1368508707912621E-3</v>
       </c>
       <c r="F126" s="2">
         <v>7.2283846903994795E-2</v>
@@ -8967,7 +9474,7 @@
         <v>2.0674260915468599E-9</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20">
       <c r="A127" s="1" t="s">
         <v>178</v>
       </c>
@@ -8978,8 +9485,12 @@
         <v>35654</v>
       </c>
       <c r="D127" s="13">
+        <f>(B127/C127)</f>
+        <v>1.9633140741571773E-4</v>
+      </c>
+      <c r="E127" s="17">
         <f t="shared" si="1"/>
-        <v>1.9633140741571773E-4</v>
+        <v>3.2254132454235161E-2</v>
       </c>
       <c r="F127" s="2">
         <v>6.5241765168852606E-2</v>
@@ -9027,7 +9538,7 @@
         <v>2.0868854343765999E-9</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20">
       <c r="A128" s="1" t="s">
         <v>182</v>
       </c>
@@ -9038,8 +9549,12 @@
         <v>249814</v>
       </c>
       <c r="D128" s="13">
+        <f>(B128/C128)</f>
+        <v>2.2016380186859024E-4</v>
+      </c>
+      <c r="E128" s="17">
         <f t="shared" si="1"/>
-        <v>2.2016380186859024E-4</v>
+        <v>3.623790456972701E-2</v>
       </c>
       <c r="F128" s="2">
         <v>9.5529815934192394E-2</v>
@@ -9087,7 +9602,7 @@
         <v>2.3593256929175099E-9</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20">
       <c r="A129" s="1" t="s">
         <v>247</v>
       </c>
@@ -9098,8 +9613,12 @@
         <v>364482</v>
       </c>
       <c r="D129" s="13">
+        <f>(B129/C129)</f>
+        <v>1.0974478849435638E-4</v>
+      </c>
+      <c r="E129" s="17">
         <f t="shared" si="1"/>
-        <v>1.0974478849435638E-4</v>
+        <v>1.7780498312447844E-2</v>
       </c>
       <c r="F129" s="2">
         <v>9.6651046121119896E-2</v>
@@ -9147,7 +9666,7 @@
         <v>2.1994568140642302E-9</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20">
       <c r="A130" s="1" t="s">
         <v>195</v>
       </c>
@@ -9158,8 +9677,12 @@
         <v>262912</v>
       </c>
       <c r="D130" s="13">
+        <f>(B130/C130)</f>
+        <v>5.3249756572541383E-5</v>
+      </c>
+      <c r="E130" s="17">
         <f t="shared" si="1"/>
-        <v>5.3249756572541383E-5</v>
+        <v>8.3369095333597366E-3</v>
       </c>
       <c r="F130" s="2">
         <v>8.8484761271609993E-2</v>
@@ -9207,7 +9730,7 @@
         <v>2.3916810739588502E-9</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20">
       <c r="A131" s="1" t="s">
         <v>199</v>
       </c>
@@ -9218,8 +9741,12 @@
         <v>150441</v>
       </c>
       <c r="D131" s="13">
-        <f t="shared" ref="D131:D194" si="2">(B131/C131)</f>
+        <f>(B131/C131)</f>
         <v>7.3118365339235983E-5</v>
+      </c>
+      <c r="E131" s="17">
+        <f t="shared" ref="E131:E194" si="2">(D131-0.000003375288165)/(0.005985744199327-0.000003375288165)</f>
+        <v>1.1658103706060024E-2</v>
       </c>
       <c r="F131" s="2">
         <v>8.66384493468592E-2</v>
@@ -9267,7 +9794,7 @@
         <v>2.3673369629990599E-9</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20">
       <c r="A132" s="1" t="s">
         <v>220</v>
       </c>
@@ -9278,8 +9805,12 @@
         <v>39261</v>
       </c>
       <c r="D132" s="13">
+        <f>(B132/C132)</f>
+        <v>5.0941137515600726E-5</v>
+      </c>
+      <c r="E132" s="17">
         <f t="shared" si="2"/>
-        <v>5.0941137515600726E-5</v>
+        <v>7.9510057064270303E-3</v>
       </c>
       <c r="F132" s="2">
         <v>9.6251215525094594E-2</v>
@@ -9327,7 +9858,7 @@
         <v>1.8597597693091799E-9</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20">
       <c r="A133" s="1" t="s">
         <v>221</v>
       </c>
@@ -9338,8 +9869,12 @@
         <v>319205</v>
       </c>
       <c r="D133" s="13">
+        <f>(B133/C133)</f>
+        <v>1.284441033191836E-4</v>
+      </c>
+      <c r="E133" s="17">
         <f t="shared" si="2"/>
-        <v>1.284441033191836E-4</v>
+        <v>2.0906235809167204E-2</v>
       </c>
       <c r="F133" s="2">
         <v>9.4493919028634299E-2</v>
@@ -9387,7 +9922,7 @@
         <v>2.1949896047647001E-9</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20">
       <c r="A134" s="1" t="s">
         <v>222</v>
       </c>
@@ -9398,8 +9933,12 @@
         <v>43977</v>
       </c>
       <c r="D134" s="13">
+        <f>(B134/C134)</f>
+        <v>2.2739159105896264E-5</v>
+      </c>
+      <c r="E134" s="17">
         <f t="shared" si="2"/>
-        <v>2.2739159105896264E-5</v>
+        <v>3.2368232766065031E-3</v>
       </c>
       <c r="F134" s="2">
         <v>8.9614254995275894E-2</v>
@@ -9447,7 +9986,7 @@
         <v>2.0963160699087001E-9</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20">
       <c r="A135" s="1" t="s">
         <v>271</v>
       </c>
@@ -9458,8 +9997,12 @@
         <v>90086</v>
       </c>
       <c r="D135" s="13">
+        <f>(B135/C135)</f>
+        <v>1.6650755944319873E-4</v>
+      </c>
+      <c r="E135" s="17">
         <f t="shared" si="2"/>
-        <v>1.6650755944319873E-4</v>
+        <v>2.726884177500721E-2</v>
       </c>
       <c r="F135" s="2">
         <v>9.3420204607042506E-2</v>
@@ -9507,7 +10050,7 @@
         <v>2.1274419185306999E-9</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20">
       <c r="A136" s="1" t="s">
         <v>18</v>
       </c>
@@ -9518,8 +10061,12 @@
         <v>74936</v>
       </c>
       <c r="D136" s="13">
+        <f>(B136/C136)</f>
+        <v>6.6723604142201345E-5</v>
+      </c>
+      <c r="E136" s="17">
         <f t="shared" si="2"/>
-        <v>6.6723604142201345E-5</v>
+        <v>1.0589169093033536E-2</v>
       </c>
       <c r="F136" s="2">
         <v>7.7371940352113297E-2</v>
@@ -9567,7 +10114,7 @@
         <v>2.30949857999572E-9</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20">
       <c r="A137" s="1" t="s">
         <v>27</v>
       </c>
@@ -9578,8 +10125,12 @@
         <v>137534</v>
       </c>
       <c r="D137" s="13">
+        <f>(B137/C137)</f>
+        <v>2.9083717480768393E-5</v>
+      </c>
+      <c r="E137" s="17">
         <f t="shared" si="2"/>
-        <v>2.9083717480768393E-5</v>
+        <v>4.297366093187799E-3</v>
       </c>
       <c r="F137" s="2">
         <v>9.6313124737650094E-2</v>
@@ -9627,7 +10178,7 @@
         <v>2.3082889205361998E-9</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20">
       <c r="A138" s="1" t="s">
         <v>46</v>
       </c>
@@ -9638,8 +10189,12 @@
         <v>326452</v>
       </c>
       <c r="D138" s="13">
+        <f>(B138/C138)</f>
+        <v>5.2075037065173439E-5</v>
+      </c>
+      <c r="E138" s="17">
         <f t="shared" si="2"/>
-        <v>5.2075037065173439E-5</v>
+        <v>8.140545931446766E-3</v>
       </c>
       <c r="F138" s="2">
         <v>8.3672003970101202E-2</v>
@@ -9687,7 +10242,7 @@
         <v>2.41546811455205E-9</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20">
       <c r="A139" s="1" t="s">
         <v>92</v>
       </c>
@@ -9698,8 +10253,12 @@
         <v>506471</v>
       </c>
       <c r="D139" s="13">
+        <f>(B139/C139)</f>
+        <v>9.8722335533525116E-6</v>
+      </c>
+      <c r="E139" s="17">
         <f t="shared" si="2"/>
-        <v>9.8722335533525116E-6</v>
+        <v>1.0860155040305867E-3</v>
       </c>
       <c r="F139" s="2">
         <v>6.1741473995150703E-2</v>
@@ -9747,7 +10306,7 @@
         <v>2.5613266520042802E-9</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20">
       <c r="A140" s="1" t="s">
         <v>110</v>
       </c>
@@ -9758,8 +10317,12 @@
         <v>143973</v>
       </c>
       <c r="D140" s="13">
+        <f>(B140/C140)</f>
+        <v>2.778298708785675E-5</v>
+      </c>
+      <c r="E140" s="17">
         <f t="shared" si="2"/>
-        <v>2.778298708785675E-5</v>
+        <v>4.0799387809930063E-3</v>
       </c>
       <c r="F140" s="2">
         <v>5.2958554274998799E-2</v>
@@ -9807,7 +10370,7 @@
         <v>2.5138066213513901E-9</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20">
       <c r="A141" s="1" t="s">
         <v>115</v>
       </c>
@@ -9818,8 +10381,12 @@
         <v>174508</v>
       </c>
       <c r="D141" s="13">
+        <f>(B141/C141)</f>
+        <v>1.1460792628418181E-5</v>
+      </c>
+      <c r="E141" s="17">
         <f t="shared" si="2"/>
-        <v>1.1460792628418181E-5</v>
+        <v>1.3515556435063903E-3</v>
       </c>
       <c r="F141" s="2">
         <v>8.6149635060935106E-2</v>
@@ -9867,7 +10434,7 @@
         <v>2.3855979840812601E-9</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20">
       <c r="A142" s="1" t="s">
         <v>144</v>
       </c>
@@ -9878,8 +10445,12 @@
         <v>75559</v>
       </c>
       <c r="D142" s="13">
+        <f>(B142/C142)</f>
+        <v>2.6469381542900251E-5</v>
+      </c>
+      <c r="E142" s="17">
         <f t="shared" si="2"/>
-        <v>2.6469381542900251E-5</v>
+        <v>3.8603592859027666E-3</v>
       </c>
       <c r="F142" s="2">
         <v>7.1358118920267805E-2</v>
@@ -9927,7 +10498,7 @@
         <v>2.49315954041242E-9</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20">
       <c r="A143" s="1" t="s">
         <v>263</v>
       </c>
@@ -9938,8 +10509,12 @@
         <v>166658</v>
       </c>
       <c r="D143" s="13">
+        <f>(B143/C143)</f>
+        <v>9.6004992259597497E-5</v>
+      </c>
+      <c r="E143" s="17">
         <f t="shared" si="2"/>
-        <v>9.6004992259597497E-5</v>
+        <v>1.5483783342375879E-2</v>
       </c>
       <c r="F143" s="2">
         <v>9.9472898804026294E-2</v>
@@ -9987,7 +10562,7 @@
         <v>2.6590436779891101E-9</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20">
       <c r="A144" s="1" t="s">
         <v>238</v>
       </c>
@@ -9998,8 +10573,12 @@
         <v>73744</v>
       </c>
       <c r="D144" s="13">
+        <f>(B144/C144)</f>
+        <v>1.3560425254935995E-4</v>
+      </c>
+      <c r="E144" s="17">
         <f t="shared" si="2"/>
-        <v>1.3560425254935995E-4</v>
+        <v>2.2103111049812565E-2</v>
       </c>
       <c r="F144" s="2">
         <v>9.8209965265990004E-2</v>
@@ -10047,7 +10626,7 @@
         <v>2.7974447695925E-9</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20">
       <c r="A145" s="1" t="s">
         <v>4</v>
       </c>
@@ -10058,8 +10637,12 @@
         <v>96803</v>
       </c>
       <c r="D145" s="13">
+        <f>(B145/C145)</f>
+        <v>7.2311808518331041E-5</v>
+      </c>
+      <c r="E145" s="17">
         <f t="shared" si="2"/>
-        <v>7.2311808518331041E-5</v>
+        <v>1.152328139187608E-2</v>
       </c>
       <c r="F145" s="2">
         <v>7.3976288354441394E-2</v>
@@ -10107,7 +10690,7 @@
         <v>1.93879174012934E-9</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20">
       <c r="A146" s="1" t="s">
         <v>6</v>
       </c>
@@ -10118,8 +10701,12 @@
         <v>132733</v>
       </c>
       <c r="D146" s="13">
+        <f>(B146/C146)</f>
+        <v>2.260176444441096E-5</v>
+      </c>
+      <c r="E146" s="17">
         <f t="shared" si="2"/>
-        <v>2.260176444441096E-5</v>
+        <v>3.2138566786708675E-3</v>
       </c>
       <c r="F146" s="2">
         <v>8.6209940454908499E-2</v>
@@ -10167,7 +10754,7 @@
         <v>2.23194077909815E-9</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20">
       <c r="A147" s="1" t="s">
         <v>55</v>
       </c>
@@ -10178,8 +10765,12 @@
         <v>46130</v>
       </c>
       <c r="D147" s="13">
+        <f>(B147/C147)</f>
+        <v>1.0838933448948623E-4</v>
+      </c>
+      <c r="E147" s="17">
         <f t="shared" si="2"/>
-        <v>1.0838933448948623E-4</v>
+        <v>1.7553923518248655E-2</v>
       </c>
       <c r="F147" s="2">
         <v>5.6534848167985603E-2</v>
@@ -10227,7 +10818,7 @@
         <v>2.2321139662974401E-9</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20">
       <c r="A148" s="1" t="s">
         <v>73</v>
       </c>
@@ -10238,8 +10829,12 @@
         <v>79978</v>
       </c>
       <c r="D148" s="13">
+        <f>(B148/C148)</f>
+        <v>4.7513066093175625E-4</v>
+      </c>
+      <c r="E148" s="17">
         <f t="shared" si="2"/>
-        <v>4.7513066093175625E-4</v>
+        <v>7.8857619744336971E-2</v>
       </c>
       <c r="F148" s="2">
         <v>6.4844547108590098E-2</v>
@@ -10287,7 +10882,7 @@
         <v>2.2235362097161201E-9</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20">
       <c r="A149" s="1" t="s">
         <v>172</v>
       </c>
@@ -10298,8 +10893,12 @@
         <v>140709</v>
       </c>
       <c r="D149" s="13">
+        <f>(B149/C149)</f>
+        <v>8.5282391318252569E-5</v>
+      </c>
+      <c r="E149" s="17">
         <f t="shared" si="2"/>
-        <v>8.5282391318252569E-5</v>
+        <v>1.3691416288358443E-2</v>
       </c>
       <c r="F149" s="2">
         <v>7.5719717928926303E-2</v>
@@ -10347,7 +10946,7 @@
         <v>2.0900971410278701E-9</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20">
       <c r="A150" s="1" t="s">
         <v>252</v>
       </c>
@@ -10358,8 +10957,12 @@
         <v>71270</v>
       </c>
       <c r="D150" s="13">
+        <f>(B150/C150)</f>
+        <v>1.4031149151115476E-5</v>
+      </c>
+      <c r="E150" s="17">
         <f t="shared" si="2"/>
-        <v>1.4031149151115476E-5</v>
+        <v>1.7812109457565548E-3</v>
       </c>
       <c r="F150" s="2">
         <v>7.0098196720078901E-2</v>
@@ -10407,7 +11010,7 @@
         <v>2.1827843534924901E-9</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20">
       <c r="A151" s="1" t="s">
         <v>255</v>
       </c>
@@ -10418,8 +11021,12 @@
         <v>117319</v>
       </c>
       <c r="D151" s="13">
+        <f>(B151/C151)</f>
+        <v>4.2618842642709194E-5</v>
+      </c>
+      <c r="E151" s="17">
         <f t="shared" si="2"/>
-        <v>4.2618842642709194E-5</v>
+        <v>6.5598686842076792E-3</v>
       </c>
       <c r="F151" s="2">
         <v>8.3829754635001794E-2</v>
@@ -10467,7 +11074,7 @@
         <v>2.1989402442724599E-9</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20">
       <c r="A152" s="1" t="s">
         <v>219</v>
       </c>
@@ -10478,8 +11085,12 @@
         <v>75483</v>
       </c>
       <c r="D152" s="13">
+        <f>(B152/C152)</f>
+        <v>1.8547222553422625E-4</v>
+      </c>
+      <c r="E152" s="17">
         <f t="shared" si="2"/>
-        <v>1.8547222553422625E-4</v>
+        <v>3.0438934822201766E-2</v>
       </c>
       <c r="F152" s="2">
         <v>6.8975420087774506E-2</v>
@@ -10527,7 +11138,7 @@
         <v>2.0181088991364299E-9</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20">
       <c r="A153" s="1" t="s">
         <v>269</v>
       </c>
@@ -10538,8 +11149,12 @@
         <v>480541</v>
       </c>
       <c r="D153" s="13">
+        <f>(B153/C153)</f>
+        <v>1.352642126270183E-4</v>
+      </c>
+      <c r="E153" s="17">
         <f t="shared" si="2"/>
-        <v>1.352642126270183E-4</v>
+        <v>2.2046270703222237E-2</v>
       </c>
       <c r="F153" s="2">
         <v>7.5538512455735604E-2</v>
@@ -10587,7 +11202,7 @@
         <v>2.0940827595357401E-9</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20">
       <c r="A154" s="1" t="s">
         <v>273</v>
       </c>
@@ -10598,8 +11213,12 @@
         <v>348744</v>
       </c>
       <c r="D154" s="13">
+        <f>(B154/C154)</f>
+        <v>9.4625283875851627E-5</v>
+      </c>
+      <c r="E154" s="17">
         <f t="shared" si="2"/>
-        <v>9.4625283875851627E-5</v>
+        <v>1.5253154238047057E-2</v>
       </c>
       <c r="F154" s="2">
         <v>9.9232708536752895E-2</v>
@@ -10647,7 +11266,7 @@
         <v>2.2694854540881102E-9</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20">
       <c r="A155" s="1" t="s">
         <v>1</v>
       </c>
@@ -10658,8 +11277,12 @@
         <v>298594</v>
       </c>
       <c r="D155" s="13">
+        <f>(B155/C155)</f>
+        <v>1.0047087349377415E-5</v>
+      </c>
+      <c r="E155" s="17">
         <f t="shared" si="2"/>
-        <v>1.0047087349377415E-5</v>
+        <v>1.1152436908277363E-3</v>
       </c>
       <c r="F155" s="2">
         <v>0.170454857604868</v>
@@ -10707,7 +11330,7 @@
         <v>3.7101644466252E-9</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20">
       <c r="A156" s="1" t="s">
         <v>29</v>
       </c>
@@ -10718,8 +11341,12 @@
         <v>171412</v>
       </c>
       <c r="D156" s="13">
+        <f>(B156/C156)</f>
+        <v>5.833897276736751E-6</v>
+      </c>
+      <c r="E156" s="17">
         <f t="shared" si="2"/>
-        <v>5.833897276736751E-6</v>
+        <v>4.1097584389177986E-4</v>
       </c>
       <c r="F156" s="2">
         <v>0.105643418926294</v>
@@ -10767,7 +11394,7 @@
         <v>2.9608717057631399E-9</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20">
       <c r="A157" s="1" t="s">
         <v>277</v>
       </c>
@@ -10778,8 +11405,12 @@
         <v>1302591</v>
       </c>
       <c r="D157" s="13">
+        <f>(B157/C157)</f>
+        <v>6.5254558030878459E-5</v>
+      </c>
+      <c r="E157" s="17">
         <f t="shared" si="2"/>
-        <v>6.5254558030878459E-5</v>
+        <v>1.0343606485120489E-2</v>
       </c>
       <c r="F157" s="2">
         <v>0.14842320551194799</v>
@@ -10827,7 +11458,7 @@
         <v>3.3257310404756701E-9</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20">
       <c r="A158" s="1" t="s">
         <v>32</v>
       </c>
@@ -10838,8 +11469,12 @@
         <v>198871</v>
       </c>
       <c r="D158" s="13">
+        <f>(B158/C158)</f>
+        <v>2.0113540938598387E-5</v>
+      </c>
+      <c r="E158" s="17">
         <f t="shared" si="2"/>
-        <v>2.0113540938598387E-5</v>
+        <v>2.7979305559655281E-3</v>
       </c>
       <c r="F158" s="2">
         <v>9.9892474078378896E-2</v>
@@ -10887,7 +11522,7 @@
         <v>2.8237702929081101E-9</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20">
       <c r="A159" s="1" t="s">
         <v>38</v>
       </c>
@@ -10898,8 +11533,12 @@
         <v>105384</v>
       </c>
       <c r="D159" s="13">
+        <f>(B159/C159)</f>
+        <v>9.4891065057314211E-6</v>
+      </c>
+      <c r="E159" s="17">
         <f t="shared" si="2"/>
-        <v>9.4891065057314211E-6</v>
+        <v>1.021972805676387E-3</v>
       </c>
       <c r="F159" s="2">
         <v>0.103022522242847</v>
@@ -10947,7 +11586,7 @@
         <v>3.0560512146536799E-9</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20">
       <c r="A160" s="1" t="s">
         <v>54</v>
       </c>
@@ -10958,8 +11597,12 @@
         <v>296271</v>
       </c>
       <c r="D160" s="13">
+        <f>(B160/C160)</f>
+        <v>3.3752881652271063E-6</v>
+      </c>
+      <c r="E160" s="17">
         <f t="shared" si="2"/>
-        <v>3.3752881652271063E-6</v>
+        <v>3.7962632727995777E-14</v>
       </c>
       <c r="F160" s="2">
         <v>0.16963138355804799</v>
@@ -11007,7 +11650,7 @@
         <v>3.4053310135682901E-9</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20">
       <c r="A161" s="1" t="s">
         <v>58</v>
       </c>
@@ -11018,8 +11661,12 @@
         <v>180593</v>
       </c>
       <c r="D161" s="13">
+        <f>(B161/C161)</f>
+        <v>1.0520895051303207E-4</v>
+      </c>
+      <c r="E161" s="17">
         <f t="shared" si="2"/>
-        <v>1.0520895051303207E-4</v>
+        <v>1.7022297330749558E-2</v>
       </c>
       <c r="F161" s="2">
         <v>0.112751176286418</v>
@@ -11067,7 +11714,7 @@
         <v>2.9432005605753599E-9</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20">
       <c r="A162" s="1" t="s">
         <v>94</v>
       </c>
@@ -11078,8 +11725,12 @@
         <v>170976</v>
       </c>
       <c r="D162" s="13">
+        <f>(B162/C162)</f>
+        <v>1.169754819389856E-5</v>
+      </c>
+      <c r="E162" s="17">
         <f t="shared" si="2"/>
-        <v>1.169754819389856E-5</v>
+        <v>1.3911311977719649E-3</v>
       </c>
       <c r="F162" s="2">
         <v>0.144806556229267</v>
@@ -11127,7 +11778,7 @@
         <v>3.5391531054631399E-9</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20">
       <c r="A163" s="1" t="s">
         <v>106</v>
       </c>
@@ -11138,8 +11789,12 @@
         <v>443971</v>
       </c>
       <c r="D163" s="13">
+        <f>(B163/C163)</f>
+        <v>1.1261996842136086E-4</v>
+      </c>
+      <c r="E163" s="17">
         <f t="shared" si="2"/>
-        <v>1.1261996842136086E-4</v>
+        <v>1.8261107243408271E-2</v>
       </c>
       <c r="F163" s="2">
         <v>0.11350945256421199</v>
@@ -11187,7 +11842,7 @@
         <v>2.7714521494101899E-9</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20">
       <c r="A164" s="1" t="s">
         <v>107</v>
       </c>
@@ -11198,8 +11853,12 @@
         <v>107989</v>
       </c>
       <c r="D164" s="13">
+        <f>(B164/C164)</f>
+        <v>9.2602024280250762E-6</v>
+      </c>
+      <c r="E164" s="17">
         <f t="shared" si="2"/>
-        <v>9.2602024280250762E-6</v>
+        <v>9.83709689324727E-4</v>
       </c>
       <c r="F164" s="2">
         <v>0.121435812958572</v>
@@ -11247,7 +11906,7 @@
         <v>3.12561516382231E-9</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20">
       <c r="A165" s="1" t="s">
         <v>119</v>
       </c>
@@ -11258,8 +11917,12 @@
         <v>113776</v>
       </c>
       <c r="D165" s="13">
+        <f>(B165/C165)</f>
+        <v>4.3945999156236819E-5</v>
+      </c>
+      <c r="E165" s="17">
         <f t="shared" si="2"/>
-        <v>4.3945999156236819E-5</v>
+        <v>6.7817133302393532E-3</v>
       </c>
       <c r="F165" s="2">
         <v>0.11586639550295599</v>
@@ -11307,7 +11970,7 @@
         <v>3.1656074324755602E-9</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20">
       <c r="A166" s="1" t="s">
         <v>153</v>
       </c>
@@ -11318,8 +11981,12 @@
         <v>138480</v>
       </c>
       <c r="D166" s="13">
+        <f>(B166/C166)</f>
+        <v>5.7770075101097634E-5</v>
+      </c>
+      <c r="E166" s="17">
         <f t="shared" si="2"/>
-        <v>5.7770075101097634E-5</v>
+        <v>9.0925163165058182E-3</v>
       </c>
       <c r="F166" s="2">
         <v>0.149353386459322</v>
@@ -11367,7 +12034,7 @@
         <v>3.4733096591361298E-9</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20">
       <c r="A167" s="1" t="s">
         <v>165</v>
       </c>
@@ -11378,8 +12045,12 @@
         <v>205720</v>
       </c>
       <c r="D167" s="13">
+        <f>(B167/C167)</f>
+        <v>1.2638537818393934E-4</v>
+      </c>
+      <c r="E167" s="17">
         <f t="shared" si="2"/>
-        <v>1.2638537818393934E-4</v>
+        <v>2.0562103716042179E-2</v>
       </c>
       <c r="F167" s="2">
         <v>0.123389476460635</v>
@@ -11427,7 +12098,7 @@
         <v>3.05883621174125E-9</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20">
       <c r="A168" s="1" t="s">
         <v>166</v>
       </c>
@@ -11438,8 +12109,12 @@
         <v>192028</v>
       </c>
       <c r="D168" s="13">
+        <f>(B168/C168)</f>
+        <v>1.0415147790947153E-5</v>
+      </c>
+      <c r="E168" s="17">
         <f t="shared" si="2"/>
-        <v>1.0415147790947153E-5</v>
+        <v>1.1767678875189509E-3</v>
       </c>
       <c r="F168" s="2">
         <v>0.119159719935199</v>
@@ -11487,7 +12162,7 @@
         <v>3.1889567227050899E-9</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20">
       <c r="A169" s="1" t="s">
         <v>245</v>
       </c>
@@ -11498,8 +12173,12 @@
         <v>105872</v>
       </c>
       <c r="D169" s="13">
+        <f>(B169/C169)</f>
+        <v>3.77814719661478E-5</v>
+      </c>
+      <c r="E169" s="17">
         <f t="shared" si="2"/>
-        <v>3.77814719661478E-5</v>
+        <v>5.7512641416934667E-3</v>
       </c>
       <c r="F169" s="2">
         <v>0.1237597213113</v>
@@ -11547,7 +12226,7 @@
         <v>3.3678624808370099E-9</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20">
       <c r="A170" s="1" t="s">
         <v>206</v>
       </c>
@@ -11558,8 +12237,12 @@
         <v>113419</v>
       </c>
       <c r="D170" s="13">
+        <f>(B170/C170)</f>
+        <v>6.1718054294254051E-5</v>
+      </c>
+      <c r="E170" s="17">
         <f t="shared" si="2"/>
-        <v>6.1718054294254051E-5</v>
+        <v>9.7524520797099591E-3</v>
       </c>
       <c r="F170" s="2">
         <v>0.110133504935675</v>
@@ -11607,7 +12290,7 @@
         <v>3.0857981220253399E-9</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20">
       <c r="A171" s="1" t="s">
         <v>264</v>
       </c>
@@ -11618,8 +12301,12 @@
         <v>65468</v>
       </c>
       <c r="D171" s="13">
+        <f>(B171/C171)</f>
+        <v>3.054927598215922E-5</v>
+      </c>
+      <c r="E171" s="17">
         <f t="shared" si="2"/>
-        <v>3.054927598215922E-5</v>
+        <v>4.5423457196792985E-3</v>
       </c>
       <c r="F171" s="2">
         <v>0.10940031989169199</v>
@@ -11667,7 +12354,7 @@
         <v>2.8653053934284501E-9</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20">
       <c r="A172" s="1" t="s">
         <v>48</v>
       </c>
@@ -11678,8 +12365,12 @@
         <v>80492</v>
       </c>
       <c r="D172" s="13">
+        <f>(B172/C172)</f>
+        <v>1.2423594891417781E-5</v>
+      </c>
+      <c r="E172" s="17">
         <f t="shared" si="2"/>
-        <v>1.2423594891417781E-5</v>
+        <v>1.5124956118194761E-3</v>
       </c>
       <c r="F172" s="2">
         <v>0.14209478610785101</v>
@@ -11727,7 +12418,7 @@
         <v>2.5105656399950898E-9</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20">
       <c r="A173" s="1" t="s">
         <v>53</v>
       </c>
@@ -11738,10 +12429,13 @@
         <v>680366</v>
       </c>
       <c r="D173" s="13">
+        <f>(B173/C173)</f>
+        <v>2.7926145633379681E-5</v>
+      </c>
+      <c r="E173" s="17">
         <f t="shared" si="2"/>
-        <v>2.7926145633379681E-5</v>
-      </c>
-      <c r="E173" s="8"/>
+        <v>4.1038688574641892E-3</v>
+      </c>
       <c r="F173" s="2">
         <v>0.14266615351210299</v>
       </c>
@@ -11788,7 +12482,7 @@
         <v>2.67006554350266E-9</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20">
       <c r="A174" s="1" t="s">
         <v>89</v>
       </c>
@@ -11799,8 +12493,12 @@
         <v>69625</v>
       </c>
       <c r="D174" s="13">
+        <f>(B174/C174)</f>
+        <v>1.4362657091561939E-5</v>
+      </c>
+      <c r="E174" s="17">
         <f t="shared" si="2"/>
-        <v>1.4362657091561939E-5</v>
+        <v>1.8366251044902178E-3</v>
       </c>
       <c r="F174" s="2">
         <v>0.102858285732636</v>
@@ -11848,7 +12546,7 @@
         <v>2.2905602743415498E-9</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20">
       <c r="A175" s="1" t="s">
         <v>125</v>
       </c>
@@ -11859,8 +12557,12 @@
         <v>124522</v>
       </c>
       <c r="D175" s="13">
+        <f>(B175/C175)</f>
+        <v>4.0153547164356501E-5</v>
+      </c>
+      <c r="E175" s="17">
         <f t="shared" si="2"/>
-        <v>4.0153547164356501E-5</v>
+        <v>6.1477751615643481E-3</v>
       </c>
       <c r="F175" s="2">
         <v>0.111629874370482</v>
@@ -11908,7 +12610,7 @@
         <v>2.54644128501562E-9</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20">
       <c r="A176" s="1" t="s">
         <v>189</v>
       </c>
@@ -11919,8 +12621,12 @@
         <v>148993</v>
       </c>
       <c r="D176" s="13">
+        <f>(B176/C176)</f>
+        <v>4.6982072983294516E-5</v>
+      </c>
+      <c r="E176" s="17">
         <f t="shared" si="2"/>
-        <v>4.6982072983294516E-5</v>
+        <v>7.2892169416252945E-3</v>
       </c>
       <c r="F176" s="2">
         <v>0.15093300386535499</v>
@@ -11968,7 +12674,7 @@
         <v>2.7755692926433401E-9</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20">
       <c r="A177" s="1" t="s">
         <v>218</v>
       </c>
@@ -11979,8 +12685,12 @@
         <v>259221</v>
       </c>
       <c r="D177" s="13">
+        <f>(B177/C177)</f>
+        <v>3.8577121452351465E-5</v>
+      </c>
+      <c r="E177" s="17">
         <f t="shared" si="2"/>
-        <v>3.8577121452351465E-5</v>
+        <v>5.8842632091229479E-3</v>
       </c>
       <c r="F177" s="2">
         <v>0.13084812473804699</v>
@@ -12028,7 +12738,7 @@
         <v>2.5368009179822101E-9</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20">
       <c r="A178" s="1" t="s">
         <v>41</v>
       </c>
@@ -12039,8 +12749,12 @@
         <v>158690</v>
       </c>
       <c r="D178" s="13">
+        <f>(B178/C178)</f>
+        <v>5.6714348730228748E-5</v>
+      </c>
+      <c r="E178" s="17">
         <f t="shared" si="2"/>
-        <v>5.6714348730228748E-5</v>
+        <v>8.9160433529446616E-3</v>
       </c>
       <c r="F178" s="2">
         <v>7.4106652496774797E-2</v>
@@ -12088,7 +12802,7 @@
         <v>3.0657537395916799E-9</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20">
       <c r="A179" s="1" t="s">
         <v>64</v>
       </c>
@@ -12099,8 +12813,12 @@
         <v>89162</v>
       </c>
       <c r="D179" s="13">
+        <f>(B179/C179)</f>
+        <v>3.1403512707207107E-4</v>
+      </c>
+      <c r="E179" s="17">
         <f t="shared" si="2"/>
-        <v>3.1403512707207107E-4</v>
+        <v>5.1929234642724378E-2</v>
       </c>
       <c r="F179" s="2">
         <v>9.2877540126706695E-2</v>
@@ -12148,7 +12866,7 @@
         <v>2.79949294391231E-9</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20">
       <c r="A180" s="1" t="s">
         <v>117</v>
       </c>
@@ -12159,8 +12877,12 @@
         <v>80040</v>
       </c>
       <c r="D180" s="13">
+        <f>(B180/C180)</f>
+        <v>3.6231884057971015E-4</v>
+      </c>
+      <c r="E180" s="17">
         <f t="shared" si="2"/>
-        <v>3.6231884057971015E-4</v>
+        <v>6.000023698722215E-2</v>
       </c>
       <c r="F180" s="2">
         <v>7.3433003728209198E-2</v>
@@ -12208,7 +12930,7 @@
         <v>2.7517859833784901E-9</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20">
       <c r="A181" s="1" t="s">
         <v>140</v>
       </c>
@@ -12219,8 +12941,12 @@
         <v>44940</v>
       </c>
       <c r="D181" s="13">
+        <f>(B181/C181)</f>
+        <v>4.4503782821539834E-5</v>
+      </c>
+      <c r="E181" s="17">
         <f t="shared" si="2"/>
-        <v>4.4503782821539834E-5</v>
+        <v>6.8749512554803546E-3</v>
       </c>
       <c r="F181" s="2">
         <v>7.8382537492383303E-2</v>
@@ -12268,7 +12994,7 @@
         <v>3.1248443844157401E-9</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20">
       <c r="A182" s="1" t="s">
         <v>143</v>
       </c>
@@ -12279,8 +13005,12 @@
         <v>226451</v>
       </c>
       <c r="D182" s="13">
+        <f>(B182/C182)</f>
+        <v>3.0911764576000991E-5</v>
+      </c>
+      <c r="E182" s="17">
         <f t="shared" si="2"/>
-        <v>3.0911764576000991E-5</v>
+        <v>4.6029385382140159E-3</v>
       </c>
       <c r="F182" s="2">
         <v>7.5798702549361094E-2</v>
@@ -12328,7 +13058,7 @@
         <v>2.8686188707160002E-9</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20">
       <c r="A183" s="1" t="s">
         <v>149</v>
       </c>
@@ -12339,8 +13069,12 @@
         <v>501402</v>
       </c>
       <c r="D183" s="13">
+        <f>(B183/C183)</f>
+        <v>1.8946872968197176E-4</v>
+      </c>
+      <c r="E183" s="17">
         <f t="shared" si="2"/>
-        <v>1.8946872968197176E-4</v>
+        <v>3.1106981913093929E-2</v>
       </c>
       <c r="F183" s="2">
         <v>9.0209291008211401E-2</v>
@@ -12388,7 +13122,7 @@
         <v>2.8994263548948498E-9</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20">
       <c r="A184" s="1" t="s">
         <v>187</v>
       </c>
@@ -12399,8 +13133,12 @@
         <v>140192</v>
       </c>
       <c r="D184" s="13">
+        <f>(B184/C184)</f>
+        <v>2.9958913490070758E-4</v>
+      </c>
+      <c r="E184" s="17">
         <f t="shared" si="2"/>
-        <v>2.9958913490070758E-4</v>
+        <v>4.9514473469368797E-2</v>
       </c>
       <c r="F184" s="2">
         <v>8.6276472055441797E-2</v>
@@ -12448,7 +13186,7 @@
         <v>2.7083115657274102E-9</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20">
       <c r="A185" s="1" t="s">
         <v>249</v>
       </c>
@@ -12459,8 +13197,12 @@
         <v>102856</v>
       </c>
       <c r="D185" s="13">
+        <f>(B185/C185)</f>
+        <v>1.2639029322548029E-4</v>
+      </c>
+      <c r="E185" s="17">
         <f t="shared" si="2"/>
-        <v>1.2639029322548029E-4</v>
+        <v>2.0562925303880361E-2</v>
       </c>
       <c r="F185" s="2">
         <v>8.6815829412438206E-2</v>
@@ -12508,7 +13250,7 @@
         <v>2.9255687668454801E-9</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20">
       <c r="A186" s="1" t="s">
         <v>205</v>
       </c>
@@ -12519,8 +13261,12 @@
         <v>195263</v>
       </c>
       <c r="D186" s="13">
+        <f>(B186/C186)</f>
+        <v>9.730466089325679E-5</v>
+      </c>
+      <c r="E186" s="17">
         <f t="shared" si="2"/>
-        <v>9.730466089325679E-5</v>
+        <v>1.5701033173163535E-2</v>
       </c>
       <c r="F186" s="2">
         <v>7.6327059557409399E-2</v>
@@ -12568,7 +13314,7 @@
         <v>3.01904111159897E-9</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20">
       <c r="A187" s="1" t="s">
         <v>7</v>
       </c>
@@ -12579,8 +13325,12 @@
         <v>401639</v>
       </c>
       <c r="D187" s="13">
+        <f>(B187/C187)</f>
+        <v>1.5187768120127775E-4</v>
+      </c>
+      <c r="E187" s="17">
         <f t="shared" si="2"/>
-        <v>1.5187768120127775E-4</v>
+        <v>2.4823342599149915E-2</v>
       </c>
       <c r="F187" s="2">
         <v>9.1141372551852395E-2</v>
@@ -12628,7 +13378,7 @@
         <v>2.3256316017195398E-9</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20">
       <c r="A188" s="1" t="s">
         <v>36</v>
       </c>
@@ -12639,8 +13389,12 @@
         <v>531930</v>
       </c>
       <c r="D188" s="13">
+        <f>(B188/C188)</f>
+        <v>1.0715695674242852E-4</v>
+      </c>
+      <c r="E188" s="17">
         <f t="shared" si="2"/>
-        <v>1.0715695674242852E-4</v>
+        <v>1.7347921888232438E-2</v>
       </c>
       <c r="F188" s="2">
         <v>7.7917120627091496E-2</v>
@@ -12688,7 +13442,7 @@
         <v>2.4810064369835198E-9</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20">
       <c r="A189" s="1" t="s">
         <v>37</v>
       </c>
@@ -12699,8 +13453,12 @@
         <v>135191</v>
       </c>
       <c r="D189" s="13">
+        <f>(B189/C189)</f>
+        <v>2.9587768416536604E-5</v>
+      </c>
+      <c r="E189" s="17">
         <f t="shared" si="2"/>
-        <v>2.9587768416536604E-5</v>
+        <v>4.3816221702123615E-3</v>
       </c>
       <c r="F189" s="2">
         <v>6.8927222080889403E-2</v>
@@ -12748,7 +13506,7 @@
         <v>2.2388240374362998E-9</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20">
       <c r="A190" s="1" t="s">
         <v>59</v>
       </c>
@@ -12759,8 +13517,12 @@
         <v>168769</v>
       </c>
       <c r="D190" s="13">
+        <f>(B190/C190)</f>
+        <v>2.3701035142709859E-4</v>
+      </c>
+      <c r="E190" s="17">
         <f t="shared" si="2"/>
-        <v>2.3701035142709859E-4</v>
+        <v>3.9053937784775949E-2</v>
       </c>
       <c r="F190" s="3">
         <v>1.8617021276595699E-4</v>
@@ -12808,7 +13570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20">
       <c r="A191" s="1" t="s">
         <v>75</v>
       </c>
@@ -12819,8 +13581,12 @@
         <v>166132</v>
       </c>
       <c r="D191" s="13">
+        <f>(B191/C191)</f>
+        <v>1.0232826908723184E-4</v>
+      </c>
+      <c r="E191" s="17">
         <f t="shared" si="2"/>
-        <v>1.0232826908723184E-4</v>
+        <v>1.6540768781009772E-2</v>
       </c>
       <c r="F191" s="2">
         <v>7.0491967415607801E-2</v>
@@ -12868,7 +13634,7 @@
         <v>2.3296222772969399E-9</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20">
       <c r="A192" s="1" t="s">
         <v>86</v>
       </c>
@@ -12879,8 +13645,12 @@
         <v>77576</v>
       </c>
       <c r="D192" s="13">
+        <f>(B192/C192)</f>
+        <v>1.4179643188615035E-4</v>
+      </c>
+      <c r="E192" s="17">
         <f t="shared" si="2"/>
-        <v>1.4179643188615035E-4</v>
+        <v>2.3138182512095162E-2</v>
       </c>
       <c r="F192" s="2">
         <v>7.1672734675039998E-2</v>
@@ -12928,7 +13698,7 @@
         <v>2.2282704938425899E-9</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20">
       <c r="A193" s="1" t="s">
         <v>118</v>
       </c>
@@ -12939,8 +13709,12 @@
         <v>74179</v>
       </c>
       <c r="D193" s="13">
+        <f>(B193/C193)</f>
+        <v>2.4265627738308685E-4</v>
+      </c>
+      <c r="E193" s="17">
         <f t="shared" si="2"/>
-        <v>2.4265627738308685E-4</v>
+        <v>3.9997698699528968E-2</v>
       </c>
       <c r="F193" s="2">
         <v>6.3070848668009605E-2</v>
@@ -12988,7 +13762,7 @@
         <v>2.4376665549292301E-9</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20">
       <c r="A194" s="1" t="s">
         <v>133</v>
       </c>
@@ -12999,8 +13773,12 @@
         <v>504298</v>
       </c>
       <c r="D194" s="13">
+        <f>(B194/C194)</f>
+        <v>1.1897727137525828E-4</v>
+      </c>
+      <c r="E194" s="17">
         <f t="shared" si="2"/>
-        <v>1.1897727137525828E-4</v>
+        <v>1.9323780416578163E-2</v>
       </c>
       <c r="F194" s="2">
         <v>8.7175572655134495E-2</v>
@@ -13048,7 +13826,7 @@
         <v>2.1829396715255E-9</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20">
       <c r="A195" s="1" t="s">
         <v>150</v>
       </c>
@@ -13059,8 +13837,12 @@
         <v>43913</v>
       </c>
       <c r="D195" s="13">
-        <f t="shared" ref="D195:D258" si="3">(B195/C195)</f>
+        <f>(B195/C195)</f>
         <v>4.7821829526563885E-4</v>
+      </c>
+      <c r="E195" s="17">
+        <f t="shared" ref="E195:E258" si="3">(D195-0.000003375288165)/(0.005985744199327-0.000003375288165)</f>
+        <v>7.9373742099834249E-2</v>
       </c>
       <c r="F195" s="2">
         <v>7.6844960968069601E-2</v>
@@ -13108,7 +13890,7 @@
         <v>2.15920221897523E-9</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20">
       <c r="A196" s="1" t="s">
         <v>179</v>
       </c>
@@ -13119,8 +13901,12 @@
         <v>60031</v>
       </c>
       <c r="D196" s="13">
+        <f>(B196/C196)</f>
+        <v>3.6647732005130684E-4</v>
+      </c>
+      <c r="E196" s="17">
         <f t="shared" si="3"/>
-        <v>3.6647732005130684E-4</v>
+        <v>6.0695359527030375E-2</v>
       </c>
       <c r="F196" s="2">
         <v>6.9689207122973704E-2</v>
@@ -13168,7 +13954,7 @@
         <v>2.2388240374362998E-9</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20">
       <c r="A197" s="1" t="s">
         <v>185</v>
       </c>
@@ -13179,8 +13965,12 @@
         <v>309199</v>
       </c>
       <c r="D197" s="13">
+        <f>(B197/C197)</f>
+        <v>2.4579639649546087E-4</v>
+      </c>
+      <c r="E197" s="17">
         <f t="shared" si="3"/>
-        <v>2.4579639649546087E-4</v>
+        <v>4.052259429841374E-2</v>
       </c>
       <c r="F197" s="2">
         <v>6.1663069163753297E-2</v>
@@ -13228,7 +14018,7 @@
         <v>2.4327295827955499E-9</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20">
       <c r="A198" s="1" t="s">
         <v>201</v>
       </c>
@@ -13239,8 +14029,12 @@
         <v>98407</v>
       </c>
       <c r="D198" s="13">
+        <f>(B198/C198)</f>
+        <v>4.0647514912557036E-5</v>
+      </c>
+      <c r="E198" s="17">
         <f t="shared" si="3"/>
-        <v>4.0647514912557036E-5</v>
+        <v>6.2303457545077028E-3</v>
       </c>
       <c r="F198" s="2">
         <v>6.6480729880078901E-2</v>
@@ -13288,7 +14082,7 @@
         <v>2.3941570167788899E-9</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20">
       <c r="A199" s="1" t="s">
         <v>227</v>
       </c>
@@ -13299,8 +14093,12 @@
         <v>121531</v>
       </c>
       <c r="D199" s="13">
+        <f>(B199/C199)</f>
+        <v>1.3988200541425645E-4</v>
+      </c>
+      <c r="E199" s="17">
         <f t="shared" si="3"/>
-        <v>1.3988200541425645E-4</v>
+        <v>2.2818171075100372E-2</v>
       </c>
       <c r="F199" s="2">
         <v>8.7677142213660103E-2</v>
@@ -13348,7 +14146,7 @@
         <v>2.30961442312124E-9</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20">
       <c r="A200" s="1" t="s">
         <v>228</v>
       </c>
@@ -13359,8 +14157,12 @@
         <v>138913</v>
       </c>
       <c r="D200" s="13">
+        <f>(B200/C200)</f>
+        <v>4.3192501781690698E-5</v>
+      </c>
+      <c r="E200" s="17">
         <f t="shared" si="3"/>
-        <v>4.3192501781690698E-5</v>
+        <v>6.6557603196952799E-3</v>
       </c>
       <c r="F200" s="2">
         <v>8.2118619846957605E-2</v>
@@ -13408,7 +14210,7 @@
         <v>2.3025582562562E-9</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20">
       <c r="A201" s="1" t="s">
         <v>229</v>
       </c>
@@ -13419,8 +14221,12 @@
         <v>119511</v>
       </c>
       <c r="D201" s="13">
+        <f>(B201/C201)</f>
+        <v>6.6939444904653134E-5</v>
+      </c>
+      <c r="E201" s="17">
         <f t="shared" si="3"/>
-        <v>6.6939444904653134E-5</v>
+        <v>1.0625248573529811E-2</v>
       </c>
       <c r="F201" s="2">
         <v>7.5878378106175398E-2</v>
@@ -13468,7 +14274,7 @@
         <v>2.1542176144079201E-9</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20">
       <c r="A202" s="1" t="s">
         <v>241</v>
       </c>
@@ -13479,8 +14285,12 @@
         <v>116542</v>
       </c>
       <c r="D202" s="13">
+        <f>(B202/C202)</f>
+        <v>3.5180449966535672E-4</v>
+      </c>
+      <c r="E202" s="17">
         <f t="shared" si="3"/>
-        <v>3.5180449966535672E-4</v>
+        <v>5.8242682234165115E-2</v>
       </c>
       <c r="F202" s="2">
         <v>7.4403217192452201E-2</v>
@@ -13528,7 +14338,7 @@
         <v>2.31355017340001E-9</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20">
       <c r="A203" s="1" t="s">
         <v>270</v>
       </c>
@@ -13539,10 +14349,13 @@
         <v>40078</v>
       </c>
       <c r="D203" s="13">
+        <f>(B203/C203)</f>
+        <v>1.9961075901991118E-4</v>
+      </c>
+      <c r="E203" s="17">
         <f t="shared" si="3"/>
-        <v>1.9961075901991118E-4</v>
-      </c>
-      <c r="E203" s="8"/>
+        <v>3.2802301858845896E-2</v>
+      </c>
       <c r="F203" s="2">
         <v>7.3377754947668697E-2</v>
       </c>
@@ -13589,7 +14402,7 @@
         <v>2.2321139662974401E-9</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20">
       <c r="A204" s="1" t="s">
         <v>21</v>
       </c>
@@ -13600,8 +14413,12 @@
         <v>140876</v>
       </c>
       <c r="D204" s="13">
+        <f>(B204/C204)</f>
+        <v>7.808285300548E-5</v>
+      </c>
+      <c r="E204" s="17">
         <f t="shared" si="3"/>
-        <v>7.808285300548E-5</v>
+        <v>1.2487956852859647E-2</v>
       </c>
       <c r="F204" s="2">
         <v>9.1100220598071505E-2</v>
@@ -13649,7 +14466,7 @@
         <v>3.0765642371913701E-9</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20">
       <c r="A205" s="1" t="s">
         <v>85</v>
       </c>
@@ -13660,8 +14477,12 @@
         <v>75169</v>
       </c>
       <c r="D205" s="13">
+        <f>(B205/C205)</f>
+        <v>5.3213425747316051E-5</v>
+      </c>
+      <c r="E205" s="17">
         <f t="shared" si="3"/>
-        <v>5.3213425747316051E-5</v>
+        <v>8.3308365502714563E-3</v>
       </c>
       <c r="F205" s="2">
         <v>8.6329881182630006E-2</v>
@@ -13709,7 +14530,7 @@
         <v>3.1690332826811301E-9</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20">
       <c r="A206" s="1" t="s">
         <v>142</v>
       </c>
@@ -13720,8 +14541,12 @@
         <v>85342</v>
       </c>
       <c r="D206" s="13">
+        <f>(B206/C206)</f>
+        <v>1.5232827915914789E-4</v>
+      </c>
+      <c r="E206" s="17">
         <f t="shared" si="3"/>
-        <v>1.5232827915914789E-4</v>
+        <v>2.4898663590643667E-2</v>
       </c>
       <c r="F206" s="2">
         <v>8.7703380457742203E-2</v>
@@ -13769,7 +14594,7 @@
         <v>3.29754214565844E-9</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20">
       <c r="A207" s="1" t="s">
         <v>148</v>
       </c>
@@ -13780,8 +14605,12 @@
         <v>81661</v>
       </c>
       <c r="D207" s="13">
+        <f>(B207/C207)</f>
+        <v>1.8368621496185449E-4</v>
+      </c>
+      <c r="E207" s="17">
         <f t="shared" si="3"/>
-        <v>1.8368621496185449E-4</v>
+        <v>3.0140389112484768E-2</v>
       </c>
       <c r="F207" s="2">
         <v>8.6549185068837201E-2</v>
@@ -13829,7 +14658,7 @@
         <v>2.7098207278383399E-9</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20">
       <c r="A208" s="1" t="s">
         <v>254</v>
       </c>
@@ -13840,8 +14669,12 @@
         <v>1083833</v>
       </c>
       <c r="D208" s="13">
+        <f>(B208/C208)</f>
+        <v>6.0894990279867843E-5</v>
+      </c>
+      <c r="E208" s="17">
         <f t="shared" si="3"/>
-        <v>6.0894990279867843E-5</v>
+        <v>9.6148704583474704E-3</v>
       </c>
       <c r="F208" s="2">
         <v>0.101127242375537</v>
@@ -13889,7 +14722,7 @@
         <v>2.9533369201946501E-9</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20">
       <c r="A209" s="1" t="s">
         <v>259</v>
       </c>
@@ -13900,8 +14733,12 @@
         <v>76216</v>
       </c>
       <c r="D209" s="13">
+        <f>(B209/C209)</f>
+        <v>3.5425632413141599E-4</v>
+      </c>
+      <c r="E209" s="17">
         <f t="shared" si="3"/>
-        <v>3.5425632413141599E-4</v>
+        <v>5.8652523971187483E-2</v>
       </c>
       <c r="F209" s="2">
         <v>8.7165711258840498E-2</v>
@@ -13949,7 +14786,7 @@
         <v>2.6261694105287499E-9</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20">
       <c r="A210" s="1" t="s">
         <v>236</v>
       </c>
@@ -13960,8 +14797,12 @@
         <v>60431</v>
       </c>
       <c r="D210" s="13">
+        <f>(B210/C210)</f>
+        <v>1.654779831543413E-5</v>
+      </c>
+      <c r="E210" s="17">
         <f t="shared" si="3"/>
-        <v>1.654779831543413E-5</v>
+        <v>2.2018886407785131E-3</v>
       </c>
       <c r="F210" s="2">
         <v>8.0772169252384493E-2</v>
@@ -14009,7 +14850,7 @@
         <v>3.1578107392641801E-9</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20">
       <c r="A211" s="1" t="s">
         <v>274</v>
       </c>
@@ -14020,8 +14861,12 @@
         <v>57007</v>
       </c>
       <c r="D211" s="13">
+        <f>(B211/C211)</f>
+        <v>1.7541705404599435E-5</v>
+      </c>
+      <c r="E211" s="17">
         <f t="shared" si="3"/>
-        <v>1.7541705404599435E-5</v>
+        <v>2.3680280253475352E-3</v>
       </c>
       <c r="F211" s="2">
         <v>9.67285204364602E-2</v>
@@ -14069,7 +14914,7 @@
         <v>3.20758579863811E-9</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20">
       <c r="A212" s="1" t="s">
         <v>42</v>
       </c>
@@ -14080,8 +14925,12 @@
         <v>31207</v>
       </c>
       <c r="D212" s="13">
+        <f>(B212/C212)</f>
+        <v>3.2044092671516003E-5</v>
+      </c>
+      <c r="E212" s="17">
         <f t="shared" si="3"/>
-        <v>3.2044092671516003E-5</v>
+        <v>4.7922160823324162E-3</v>
       </c>
       <c r="F212" s="2">
         <v>0.105886933904383</v>
@@ -14129,7 +14978,7 @@
         <v>1.84975484125885E-9</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20">
       <c r="A213" s="1" t="s">
         <v>44</v>
       </c>
@@ -14140,8 +14989,12 @@
         <v>75631</v>
       </c>
       <c r="D213" s="13">
+        <f>(B213/C213)</f>
+        <v>1.8510928058600309E-4</v>
+      </c>
+      <c r="E213" s="17">
         <f t="shared" si="3"/>
-        <v>1.8510928058600309E-4</v>
+        <v>3.0378265720444102E-2</v>
       </c>
       <c r="F213" s="2">
         <v>0.10929788062540199</v>
@@ -14189,7 +15042,7 @@
         <v>1.83019578704234E-9</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20">
       <c r="A214" s="1" t="s">
         <v>69</v>
       </c>
@@ -14200,8 +15053,12 @@
         <v>117564</v>
       </c>
       <c r="D214" s="13">
+        <f>(B214/C214)</f>
+        <v>5.9542036677894595E-5</v>
+      </c>
+      <c r="E214" s="17">
         <f t="shared" si="3"/>
-        <v>5.9542036677894595E-5</v>
+        <v>9.3887136261519705E-3</v>
       </c>
       <c r="F214" s="2">
         <v>9.2476102775237101E-2</v>
@@ -14249,7 +15106,7 @@
         <v>2.0237424937652099E-9</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20">
       <c r="A215" s="1" t="s">
         <v>71</v>
       </c>
@@ -14260,8 +15117,12 @@
         <v>267671</v>
       </c>
       <c r="D215" s="13">
+        <f>(B215/C215)</f>
+        <v>7.4718591106246102E-6</v>
+      </c>
+      <c r="E215" s="17">
         <f t="shared" si="3"/>
-        <v>7.4718591106246102E-6</v>
+        <v>6.8477404293492544E-4</v>
       </c>
       <c r="F215" s="2">
         <v>8.9254184004620901E-2</v>
@@ -14309,7 +15170,7 @@
         <v>2.1177312962205798E-9</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20">
       <c r="A216" s="1" t="s">
         <v>72</v>
       </c>
@@ -14320,8 +15181,12 @@
         <v>224626</v>
       </c>
       <c r="D216" s="13">
+        <f>(B216/C216)</f>
+        <v>1.5136270957057509E-4</v>
+      </c>
+      <c r="E216" s="17">
         <f t="shared" si="3"/>
-        <v>1.5136270957057509E-4</v>
+        <v>2.473726104210287E-2</v>
       </c>
       <c r="F216" s="2">
         <v>9.8950449677781396E-2</v>
@@ -14369,7 +15234,7 @@
         <v>2.09161587975561E-9</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20">
       <c r="A217" s="1" t="s">
         <v>82</v>
       </c>
@@ -14380,8 +15245,12 @@
         <v>49175</v>
       </c>
       <c r="D217" s="13">
+        <f>(B217/C217)</f>
+        <v>1.8301982714794102E-4</v>
+      </c>
+      <c r="E217" s="17">
         <f t="shared" si="3"/>
-        <v>1.8301982714794102E-4</v>
+        <v>3.0028997149901163E-2</v>
       </c>
       <c r="F217" s="2">
         <v>8.3441522679980701E-2</v>
@@ -14429,7 +15298,7 @@
         <v>1.8942385832961201E-9</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20">
       <c r="A218" s="1" t="s">
         <v>87</v>
       </c>
@@ -14440,8 +15309,12 @@
         <v>54488</v>
       </c>
       <c r="D218" s="13">
+        <f>(B218/C218)</f>
+        <v>3.670532961385993E-5</v>
+      </c>
+      <c r="E218" s="17">
         <f t="shared" si="3"/>
-        <v>3.670532961385993E-5</v>
+        <v>5.571378486317051E-3</v>
       </c>
       <c r="F218" s="2">
         <v>8.6709701973127801E-2</v>
@@ -14489,7 +15362,7 @@
         <v>1.9391794741604801E-9</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20">
       <c r="A219" s="1" t="s">
         <v>98</v>
       </c>
@@ -14500,8 +15373,12 @@
         <v>138972</v>
       </c>
       <c r="D219" s="13">
+        <f>(B219/C219)</f>
+        <v>9.3544023256483325E-5</v>
+      </c>
+      <c r="E219" s="17">
         <f t="shared" si="3"/>
-        <v>9.3544023256483325E-5</v>
+        <v>1.5072413024085667E-2</v>
       </c>
       <c r="F219" s="2">
         <v>9.9539270858141293E-2</v>
@@ -14549,7 +15426,7 @@
         <v>2.00129503840625E-9</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20">
       <c r="A220" s="1" t="s">
         <v>105</v>
       </c>
@@ -14560,8 +15437,12 @@
         <v>72355</v>
       </c>
       <c r="D220" s="13">
+        <f>(B220/C220)</f>
+        <v>4.1462234814456498E-5</v>
+      </c>
+      <c r="E220" s="17">
         <f t="shared" si="3"/>
-        <v>4.1462234814456498E-5</v>
+        <v>6.3665325918622739E-3</v>
       </c>
       <c r="F220" s="2">
         <v>9.9013665652165198E-2</v>
@@ -14609,7 +15490,7 @@
         <v>2.2595721363554301E-9</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20">
       <c r="A221" s="1" t="s">
         <v>136</v>
       </c>
@@ -14620,8 +15501,12 @@
         <v>306310</v>
       </c>
       <c r="D221" s="13">
+        <f>(B221/C221)</f>
+        <v>1.0087819529235088E-3</v>
+      </c>
+      <c r="E221" s="17">
         <f t="shared" si="3"/>
-        <v>1.0087819529235088E-3</v>
+        <v>0.16806162904507693</v>
       </c>
       <c r="F221" s="2">
         <v>9.9264406712493397E-2</v>
@@ -14669,7 +15554,7 @@
         <v>1.9254628349862101E-9</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20">
       <c r="A222" s="1" t="s">
         <v>138</v>
       </c>
@@ -14680,8 +15565,12 @@
         <v>97519</v>
       </c>
       <c r="D222" s="13">
+        <f>(B222/C222)</f>
+        <v>3.6915883058686E-4</v>
+      </c>
+      <c r="E222" s="17">
         <f t="shared" si="3"/>
-        <v>3.6915883058686E-4</v>
+        <v>6.1143595096480118E-2</v>
       </c>
       <c r="F222" s="2">
         <v>9.5843664417188904E-2</v>
@@ -14729,7 +15618,7 @@
         <v>2.2741637476073001E-9</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20">
       <c r="A223" s="1" t="s">
         <v>180</v>
       </c>
@@ -14740,8 +15629,12 @@
         <v>99001</v>
       </c>
       <c r="D223" s="13">
+        <f>(B223/C223)</f>
+        <v>1.010090807163564E-5</v>
+      </c>
+      <c r="E223" s="17">
         <f t="shared" si="3"/>
-        <v>1.010090807163564E-5</v>
+        <v>1.1242402477197404E-3</v>
       </c>
       <c r="F223" s="2">
         <v>8.9875168473062095E-2</v>
@@ -14789,7 +15682,7 @@
         <v>2.2482733956544699E-9</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20">
       <c r="A224" s="1" t="s">
         <v>191</v>
       </c>
@@ -14800,8 +15693,12 @@
         <v>174495</v>
       </c>
       <c r="D224" s="13">
+        <f>(B224/C224)</f>
+        <v>5.7308232327573853E-6</v>
+      </c>
+      <c r="E224" s="17">
         <f t="shared" si="3"/>
-        <v>5.7308232327573853E-6</v>
+        <v>3.9374620701882666E-4</v>
       </c>
       <c r="F224" s="2">
         <v>9.5732873727627704E-2</v>
@@ -14849,7 +15746,7 @@
         <v>2.0497063054620299E-9</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20">
       <c r="A225" s="1" t="s">
         <v>248</v>
       </c>
@@ -14860,8 +15757,12 @@
         <v>168664</v>
       </c>
       <c r="D225" s="13">
+        <f>(B225/C225)</f>
+        <v>1.7786842479723E-4</v>
+      </c>
+      <c r="E225" s="17">
         <f t="shared" si="3"/>
-        <v>1.7786842479723E-4</v>
+        <v>2.9167899743972311E-2</v>
       </c>
       <c r="F225" s="2">
         <v>9.9410177180698805E-2</v>
@@ -14909,7 +15810,7 @@
         <v>1.9514529473297899E-9</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20">
       <c r="A226" s="1" t="s">
         <v>278</v>
       </c>
@@ -14920,8 +15821,12 @@
         <v>3372660</v>
       </c>
       <c r="D226" s="13">
+        <f>(B226/C226)</f>
+        <v>3.6766231994923889E-5</v>
+      </c>
+      <c r="E226" s="17">
         <f t="shared" si="3"/>
-        <v>3.6766231994923889E-5</v>
+        <v>5.5815587981581224E-3</v>
       </c>
       <c r="F226" s="2">
         <v>0.11050893018956</v>
@@ -14969,7 +15874,7 @@
         <v>2.4191212155454499E-9</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20">
       <c r="A227" s="1" t="s">
         <v>231</v>
       </c>
@@ -14980,8 +15885,12 @@
         <v>451780</v>
       </c>
       <c r="D227" s="13">
+        <f>(B227/C227)</f>
+        <v>1.9699853911195716E-4</v>
+      </c>
+      <c r="E227" s="17">
         <f t="shared" si="3"/>
-        <v>1.9699853911195716E-4</v>
+        <v>3.2365648762598342E-2</v>
       </c>
       <c r="F227" s="2">
         <v>0.10340008705515499</v>
@@ -15029,7 +15938,7 @@
         <v>2.2474115685774801E-9</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20">
       <c r="A228" s="1" t="s">
         <v>244</v>
       </c>
@@ -15040,8 +15949,12 @@
         <v>155013</v>
       </c>
       <c r="D228" s="13">
+        <f>(B228/C228)</f>
+        <v>1.0966822137498145E-4</v>
+      </c>
+      <c r="E228" s="17">
         <f t="shared" si="3"/>
-        <v>1.0966822137498145E-4</v>
+        <v>1.7767699516433765E-2</v>
       </c>
       <c r="F228" s="2">
         <v>9.9100059537315904E-2</v>
@@ -15089,7 +16002,7 @@
         <v>2.28199438642108E-9</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20">
       <c r="A229" s="1" t="s">
         <v>49</v>
       </c>
@@ -15100,8 +16013,12 @@
         <v>26064</v>
       </c>
       <c r="D229" s="13">
+        <f>(B229/C229)</f>
+        <v>3.8367096378146099E-5</v>
+      </c>
+      <c r="E229" s="17">
         <f t="shared" si="3"/>
-        <v>3.8367096378146099E-5</v>
+        <v>5.8491558666430316E-3</v>
       </c>
       <c r="F229" s="2">
         <v>9.6120675067808803E-2</v>
@@ -15149,7 +16066,7 @@
         <v>1.7691436394014699E-9</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20">
       <c r="A230" s="1" t="s">
         <v>65</v>
       </c>
@@ -15160,8 +16077,12 @@
         <v>261324</v>
       </c>
       <c r="D230" s="13">
+        <f>(B230/C230)</f>
+        <v>8.0360012857602051E-5</v>
+      </c>
+      <c r="E230" s="17">
         <f t="shared" si="3"/>
-        <v>8.0360012857602051E-5</v>
+        <v>1.2868602026358273E-2</v>
       </c>
       <c r="F230" s="2">
         <v>7.9770558723250506E-2</v>
@@ -15209,7 +16130,7 @@
         <v>1.6627067153505001E-9</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20">
       <c r="A231" s="1" t="s">
         <v>103</v>
       </c>
@@ -15220,8 +16141,12 @@
         <v>53714</v>
       </c>
       <c r="D231" s="13">
+        <f>(B231/C231)</f>
+        <v>3.7234240607662805E-5</v>
+      </c>
+      <c r="E231" s="17">
         <f t="shared" si="3"/>
-        <v>3.7234240607662805E-5</v>
+        <v>5.6597901175048275E-3</v>
       </c>
       <c r="F231" s="2">
         <v>8.4090273544379604E-2</v>
@@ -15269,7 +16194,7 @@
         <v>1.7233218837046501E-9</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20">
       <c r="A232" s="1" t="s">
         <v>176</v>
       </c>
@@ -15280,8 +16205,12 @@
         <v>45523</v>
       </c>
       <c r="D232" s="13">
+        <f>(B232/C232)</f>
+        <v>2.196691782176043E-5</v>
+      </c>
+      <c r="E232" s="17">
         <f t="shared" si="3"/>
-        <v>2.196691782176043E-5</v>
+        <v>3.1077370742001328E-3</v>
       </c>
       <c r="F232" s="2">
         <v>8.8298648174820193E-2</v>
@@ -15329,7 +16258,7 @@
         <v>1.7523392296339199E-9</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20">
       <c r="A233" s="1" t="s">
         <v>186</v>
       </c>
@@ -15340,8 +16269,12 @@
         <v>116181</v>
       </c>
       <c r="D233" s="13">
+        <f>(B233/C233)</f>
+        <v>2.3239600278875203E-4</v>
+      </c>
+      <c r="E233" s="17">
         <f t="shared" si="3"/>
-        <v>2.3239600278875203E-4</v>
+        <v>3.8282613129464738E-2</v>
       </c>
       <c r="F233" s="2">
         <v>9.6324014238441502E-2</v>
@@ -15389,7 +16322,7 @@
         <v>1.8857011020924701E-9</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20">
       <c r="A234" s="1" t="s">
         <v>226</v>
       </c>
@@ -15400,8 +16333,12 @@
         <v>51449</v>
       </c>
       <c r="D234" s="13">
+        <f>(B234/C234)</f>
+        <v>3.8873447491690803E-5</v>
+      </c>
+      <c r="E234" s="17">
         <f t="shared" si="3"/>
-        <v>3.8873447491690803E-5</v>
+        <v>5.9337964364681297E-3</v>
       </c>
       <c r="F234" s="2">
         <v>8.4373181901960803E-2</v>
@@ -15449,7 +16386,7 @@
         <v>1.69404680266319E-9</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20">
       <c r="A235" s="1" t="s">
         <v>43</v>
       </c>
@@ -15460,8 +16397,12 @@
         <v>324083</v>
       </c>
       <c r="D235" s="13">
+        <f>(B235/C235)</f>
+        <v>3.7953240373607997E-4</v>
+      </c>
+      <c r="E235" s="17">
         <f t="shared" si="3"/>
-        <v>3.7953240373607997E-4</v>
+        <v>6.2877619410805635E-2</v>
       </c>
       <c r="F235" s="2">
         <v>9.5462210905549502E-2</v>
@@ -15509,7 +16450,7 @@
         <v>2.0860619814560598E-9</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20">
       <c r="A236" s="1" t="s">
         <v>81</v>
       </c>
@@ -15520,8 +16461,12 @@
         <v>36673</v>
       </c>
       <c r="D236" s="13">
+        <f>(B236/C236)</f>
+        <v>2.4541215608213124E-4</v>
+      </c>
+      <c r="E236" s="17">
         <f t="shared" si="3"/>
-        <v>2.4541215608213124E-4</v>
+        <v>4.0458365492227498E-2</v>
       </c>
       <c r="F236" s="2">
         <v>9.5523714824788594E-2</v>
@@ -15569,7 +16514,7 @@
         <v>1.9001809645847202E-9</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20">
       <c r="A237" s="1" t="s">
         <v>168</v>
       </c>
@@ -15580,8 +16525,12 @@
         <v>146140</v>
       </c>
       <c r="D237" s="13">
+        <f>(B237/C237)</f>
+        <v>2.2581086629259615E-4</v>
+      </c>
+      <c r="E237" s="17">
         <f t="shared" si="3"/>
-        <v>2.2581086629259615E-4</v>
+        <v>3.7181855788360411E-2</v>
       </c>
       <c r="F237" s="2">
         <v>8.9778793705747595E-2</v>
@@ -15629,7 +16578,7 @@
         <v>1.9755877712913001E-9</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20">
       <c r="A238" s="1" t="s">
         <v>174</v>
       </c>
@@ -15640,8 +16589,12 @@
         <v>60364</v>
       </c>
       <c r="D238" s="13">
+        <f>(B238/C238)</f>
+        <v>1.6566165264064674E-4</v>
+      </c>
+      <c r="E238" s="17">
         <f t="shared" si="3"/>
-        <v>1.6566165264064674E-4</v>
+        <v>2.7127441802000916E-2</v>
       </c>
       <c r="F238" s="2">
         <v>8.3803255138162697E-2</v>
@@ -15689,7 +16642,7 @@
         <v>1.9123476798793399E-9</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20">
       <c r="A239" s="1" t="s">
         <v>197</v>
       </c>
@@ -15700,8 +16653,12 @@
         <v>101727</v>
       </c>
       <c r="D239" s="13">
+        <f>(B239/C239)</f>
+        <v>5.898139137102244E-5</v>
+      </c>
+      <c r="E239" s="17">
         <f t="shared" si="3"/>
-        <v>5.898139137102244E-5</v>
+        <v>9.2949973550229704E-3</v>
       </c>
       <c r="F239" s="2">
         <v>9.7442057704789101E-2</v>
@@ -15749,7 +16706,7 @@
         <v>2.0677643526748201E-9</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20">
       <c r="A240" s="1" t="s">
         <v>267</v>
       </c>
@@ -15760,8 +16717,12 @@
         <v>25475</v>
       </c>
       <c r="D240" s="13">
+        <f>(B240/C240)</f>
+        <v>3.9254170755642787E-5</v>
+      </c>
+      <c r="E240" s="17">
         <f t="shared" si="3"/>
-        <v>3.9254170755642787E-5</v>
+        <v>5.9974373234822397E-3</v>
       </c>
       <c r="F240" s="2">
         <v>8.9303388968139094E-2</v>
@@ -15809,7 +16770,7 @@
         <v>1.9056573361782001E-9</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20">
       <c r="A241" s="1" t="s">
         <v>23</v>
       </c>
@@ -15820,8 +16781,12 @@
         <v>158270</v>
       </c>
       <c r="D241" s="13">
+        <f>(B241/C241)</f>
+        <v>6.950148480444809E-5</v>
+      </c>
+      <c r="E241" s="17">
         <f t="shared" si="3"/>
-        <v>6.950148480444809E-5</v>
+        <v>1.105351368687223E-2</v>
       </c>
       <c r="F241" s="2">
         <v>8.9233174473002497E-2</v>
@@ -15869,7 +16834,7 @@
         <v>2.7353035555649098E-9</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20">
       <c r="A242" s="1" t="s">
         <v>30</v>
       </c>
@@ -15880,8 +16845,12 @@
         <v>154530</v>
       </c>
       <c r="D242" s="13">
+        <f>(B242/C242)</f>
+        <v>5.8241118229470004E-5</v>
+      </c>
+      <c r="E242" s="17">
         <f t="shared" si="3"/>
-        <v>5.8241118229470004E-5</v>
+        <v>9.1712548789995973E-3</v>
       </c>
       <c r="F242" s="2">
         <v>8.2728237954567699E-2</v>
@@ -15929,7 +16898,7 @@
         <v>2.57240311638534E-9</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20">
       <c r="A243" s="1" t="s">
         <v>51</v>
       </c>
@@ -15940,8 +16909,12 @@
         <v>134892</v>
       </c>
       <c r="D243" s="13">
+        <f>(B243/C243)</f>
+        <v>1.2602674732378494E-4</v>
+      </c>
+      <c r="E243" s="17">
         <f t="shared" si="3"/>
-        <v>1.2602674732378494E-4</v>
+        <v>2.0502155748024817E-2</v>
       </c>
       <c r="F243" s="2">
         <v>8.5957657684258504E-2</v>
@@ -15989,7 +16962,7 @@
         <v>2.7912374191272401E-9</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20">
       <c r="A244" s="1" t="s">
         <v>70</v>
       </c>
@@ -16000,8 +16973,12 @@
         <v>1773033</v>
       </c>
       <c r="D244" s="13">
+        <f>(B244/C244)</f>
+        <v>2.2278209147827481E-4</v>
+      </c>
+      <c r="E244" s="17">
         <f t="shared" si="3"/>
-        <v>2.2278209147827481E-4</v>
+        <v>3.6675572264341989E-2</v>
       </c>
       <c r="F244" s="2">
         <v>7.7879142141680194E-2</v>
@@ -16049,7 +17026,7 @@
         <v>2.8292600269145701E-9</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20">
       <c r="A245" s="1" t="s">
         <v>83</v>
       </c>
@@ -16060,8 +17037,12 @@
         <v>61358</v>
       </c>
       <c r="D245" s="13">
+        <f>(B245/C245)</f>
+        <v>6.845073177091822E-4</v>
+      </c>
+      <c r="E245" s="17">
         <f t="shared" si="3"/>
-        <v>6.845073177091822E-4</v>
+        <v>0.11385657415297727</v>
       </c>
       <c r="F245" s="2">
         <v>8.1065859039303995E-2</v>
@@ -16109,7 +17090,7 @@
         <v>2.2595952045845799E-9</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20">
       <c r="A246" s="1" t="s">
         <v>137</v>
       </c>
@@ -16120,8 +17101,12 @@
         <v>125341</v>
       </c>
       <c r="D246" s="13">
+        <f>(B246/C246)</f>
+        <v>2.8721647346040003E-4</v>
+      </c>
+      <c r="E246" s="17">
         <f t="shared" si="3"/>
-        <v>2.8721647346040003E-4</v>
+        <v>4.7446285829314969E-2</v>
       </c>
       <c r="F246" s="2">
         <v>7.7576272569476606E-2</v>
@@ -16169,7 +17154,7 @@
         <v>2.3635110915758199E-9</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20">
       <c r="A247" s="1" t="s">
         <v>158</v>
       </c>
@@ -16180,8 +17165,12 @@
         <v>135421</v>
       </c>
       <c r="D247" s="13">
+        <f>(B247/C247)</f>
+        <v>8.1228169929331486E-5</v>
+      </c>
+      <c r="E247" s="17">
         <f t="shared" si="3"/>
-        <v>8.1228169929331486E-5</v>
+        <v>1.3013721306800776E-2</v>
       </c>
       <c r="F247" s="2">
         <v>9.0476884779252101E-2</v>
@@ -16229,7 +17218,7 @@
         <v>2.6196324089822098E-9</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20">
       <c r="A248" s="1" t="s">
         <v>171</v>
       </c>
@@ -16240,8 +17229,12 @@
         <v>70852</v>
       </c>
       <c r="D248" s="13">
+        <f>(B248/C248)</f>
+        <v>2.8227855247558292E-4</v>
+      </c>
+      <c r="E248" s="17">
         <f t="shared" si="3"/>
-        <v>2.8227855247558292E-4</v>
+        <v>4.6620873512196938E-2</v>
       </c>
       <c r="F248" s="2">
         <v>7.4013859182670894E-2</v>
@@ -16289,7 +17282,7 @@
         <v>2.7840699675088301E-9</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20">
       <c r="A249" s="1" t="s">
         <v>256</v>
       </c>
@@ -16300,8 +17293,12 @@
         <v>46125</v>
       </c>
       <c r="D249" s="13">
+        <f>(B249/C249)</f>
+        <v>2.1680216802168021E-5</v>
+      </c>
+      <c r="E249" s="17">
         <f t="shared" si="3"/>
-        <v>2.1680216802168021E-5</v>
+        <v>3.0598127445825665E-3</v>
       </c>
       <c r="F249" s="2">
         <v>7.4305417020514603E-2</v>
@@ -16349,7 +17346,7 @@
         <v>2.6179081832048301E-9</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20">
       <c r="A250" s="1" t="s">
         <v>202</v>
       </c>
@@ -16360,8 +17357,12 @@
         <v>262604</v>
       </c>
       <c r="D250" s="13">
+        <f>(B250/C250)</f>
+        <v>8.3776332424487059E-5</v>
+      </c>
+      <c r="E250" s="17">
         <f t="shared" si="3"/>
-        <v>8.3776332424487059E-5</v>
+        <v>1.3439666702846341E-2</v>
       </c>
       <c r="F250" s="2">
         <v>6.8610073096969607E-2</v>
@@ -16409,7 +17410,7 @@
         <v>2.8020749884733998E-9</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20">
       <c r="A251" s="1" t="s">
         <v>203</v>
       </c>
@@ -16420,8 +17421,12 @@
         <v>244971</v>
       </c>
       <c r="D251" s="13">
+        <f>(B251/C251)</f>
+        <v>6.5313853476533956E-5</v>
+      </c>
+      <c r="E251" s="17">
         <f t="shared" si="3"/>
-        <v>6.5313853476533956E-5</v>
+        <v>1.0353518185073473E-2</v>
       </c>
       <c r="F251" s="2">
         <v>7.7011659795358595E-2</v>
@@ -16469,7 +17474,7 @@
         <v>2.3657008635076701E-9</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20">
       <c r="A252" s="1" t="s">
         <v>209</v>
       </c>
@@ -16480,8 +17485,12 @@
         <v>111319</v>
       </c>
       <c r="D252" s="13">
+        <f>(B252/C252)</f>
+        <v>5.3899154681590744E-5</v>
+      </c>
+      <c r="E252" s="17">
         <f t="shared" si="3"/>
-        <v>5.3899154681590744E-5</v>
+        <v>8.4454615331933987E-3</v>
       </c>
       <c r="F252" s="2">
         <v>7.2993046823996197E-2</v>
@@ -16529,7 +17538,7 @@
         <v>2.8501643411391099E-9</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20">
       <c r="A253" s="1" t="s">
         <v>216</v>
       </c>
@@ -16540,8 +17549,12 @@
         <v>182848</v>
       </c>
       <c r="D253" s="13">
+        <f>(B253/C253)</f>
+        <v>4.9221211060553029E-5</v>
+      </c>
+      <c r="E253" s="17">
         <f t="shared" si="3"/>
-        <v>4.9221211060553029E-5</v>
+        <v>7.6635064765084894E-3</v>
       </c>
       <c r="F253" s="2">
         <v>9.9600800616186494E-2</v>
@@ -16589,7 +17602,7 @@
         <v>2.5048959060833202E-9</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20">
       <c r="A254" s="1" t="s">
         <v>232</v>
       </c>
@@ -16600,8 +17613,12 @@
         <v>57199</v>
       </c>
       <c r="D254" s="13">
+        <f>(B254/C254)</f>
+        <v>1.5734540813650588E-4</v>
+      </c>
+      <c r="E254" s="17">
         <f t="shared" si="3"/>
-        <v>1.5734540813650588E-4</v>
+        <v>2.573731614648939E-2</v>
       </c>
       <c r="F254" s="2">
         <v>6.1177838979898501E-2</v>
@@ -16649,7 +17666,7 @@
         <v>2.7198654618007098E-9</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20">
       <c r="A255" s="1" t="s">
         <v>240</v>
       </c>
@@ -16660,8 +17677,12 @@
         <v>31071</v>
       </c>
       <c r="D255" s="13">
+        <f>(B255/C255)</f>
+        <v>3.2184351968073124E-5</v>
+      </c>
+      <c r="E255" s="17">
         <f t="shared" si="3"/>
-        <v>3.2184351968073124E-5</v>
+        <v>4.8156615265435585E-3</v>
       </c>
       <c r="F255" s="2">
         <v>7.4589785525841196E-2</v>
@@ -16709,7 +17730,7 @@
         <v>2.65151088651429E-9</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20">
       <c r="A256" s="1" t="s">
         <v>17</v>
       </c>
@@ -16720,8 +17741,12 @@
         <v>1040565</v>
       </c>
       <c r="D256" s="13">
+        <f>(B256/C256)</f>
+        <v>2.9791507498330235E-5</v>
+      </c>
+      <c r="E256" s="17">
         <f t="shared" si="3"/>
-        <v>2.9791507498330235E-5</v>
+        <v>4.4156787596369108E-3</v>
       </c>
       <c r="F256" s="2">
         <v>8.98490850286673E-2</v>
@@ -16769,7 +17794,7 @@
         <v>2.4701698162797998E-9</v>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20">
       <c r="A257" s="1" t="s">
         <v>25</v>
       </c>
@@ -16780,8 +17805,12 @@
         <v>73886</v>
       </c>
       <c r="D257" s="13">
+        <f>(B257/C257)</f>
+        <v>1.218092737460412E-4</v>
+      </c>
+      <c r="E257" s="17">
         <f t="shared" si="3"/>
-        <v>1.218092737460412E-4</v>
+        <v>1.9797171879531731E-2</v>
       </c>
       <c r="F257" s="2">
         <v>5.6770559347164497E-2</v>
@@ -16829,7 +17858,7 @@
         <v>2.75138165169208E-9</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20">
       <c r="A258" s="1" t="s">
         <v>62</v>
       </c>
@@ -16840,8 +17869,12 @@
         <v>251409</v>
       </c>
       <c r="D258" s="13">
+        <f>(B258/C258)</f>
+        <v>1.1137230568515845E-4</v>
+      </c>
+      <c r="E258" s="17">
         <f t="shared" si="3"/>
-        <v>1.1137230568515845E-4</v>
+        <v>1.8052550607277975E-2</v>
       </c>
       <c r="F258" s="2">
         <v>7.9448360726698405E-2</v>
@@ -16889,7 +17922,7 @@
         <v>2.8969635873187101E-9</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20">
       <c r="A259" s="1" t="s">
         <v>80</v>
       </c>
@@ -16900,8 +17933,12 @@
         <v>80556</v>
       </c>
       <c r="D259" s="13">
-        <f t="shared" ref="D259:D283" si="4">(B259/C259)</f>
+        <f>(B259/C259)</f>
         <v>7.4482347683598989E-5</v>
+      </c>
+      <c r="E259" s="17">
+        <f t="shared" ref="E259:E280" si="4">(D259-0.000003375288165)/(0.005985744199327-0.000003375288165)</f>
+        <v>1.1886104079259689E-2</v>
       </c>
       <c r="F259" s="2">
         <v>6.1302934001960699E-2</v>
@@ -16949,7 +17986,7 @@
         <v>2.65860619743444E-9</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20">
       <c r="A260" s="1" t="s">
         <v>100</v>
       </c>
@@ -16960,8 +17997,12 @@
         <v>348664</v>
       </c>
       <c r="D260" s="13">
+        <f>(B260/C260)</f>
+        <v>1.3766835692816007E-4</v>
+      </c>
+      <c r="E260" s="17">
         <f t="shared" si="4"/>
-        <v>1.3766835692816007E-4</v>
+        <v>2.2448142325792366E-2</v>
       </c>
       <c r="F260" s="2">
         <v>7.6372075490896404E-2</v>
@@ -17009,7 +18050,7 @@
         <v>2.1398466771011E-9</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20">
       <c r="A261" s="1" t="s">
         <v>139</v>
       </c>
@@ -17020,8 +18061,12 @@
         <v>118849</v>
       </c>
       <c r="D261" s="13">
+        <f>(B261/C261)</f>
+        <v>1.0938249375257679E-4</v>
+      </c>
+      <c r="E261" s="17">
         <f t="shared" si="4"/>
-        <v>1.0938249375257679E-4</v>
+        <v>1.7719937897809485E-2</v>
       </c>
       <c r="F261" s="2">
         <v>7.9242810008239406E-2</v>
@@ -17069,7 +18114,7 @@
         <v>3.0518798641606E-9</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20">
       <c r="A262" s="1" t="s">
         <v>145</v>
       </c>
@@ -17080,8 +18125,12 @@
         <v>196546</v>
       </c>
       <c r="D262" s="13">
+        <f>(B262/C262)</f>
+        <v>8.1405879539649754E-5</v>
+      </c>
+      <c r="E262" s="17">
         <f t="shared" si="4"/>
-        <v>8.1405879539649754E-5</v>
+        <v>1.3043426865410962E-2</v>
       </c>
       <c r="F262" s="2">
         <v>7.3574954233903395E-2</v>
@@ -17129,7 +18178,7 @@
         <v>2.2243856164321801E-9</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20">
       <c r="A263" s="1" t="s">
         <v>156</v>
       </c>
@@ -17140,8 +18189,12 @@
         <v>92456</v>
       </c>
       <c r="D263" s="13">
+        <f>(B263/C263)</f>
+        <v>9.7343601280609158E-5</v>
+      </c>
+      <c r="E263" s="17">
         <f t="shared" si="4"/>
-        <v>9.7343601280609158E-5</v>
+        <v>1.5707542365079086E-2</v>
       </c>
       <c r="F263" s="2">
         <v>7.7135859907532897E-2</v>
@@ -17189,7 +18242,7 @@
         <v>2.7202693940225501E-9</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20">
       <c r="A264" s="1" t="s">
         <v>167</v>
       </c>
@@ -17200,8 +18253,12 @@
         <v>55682</v>
       </c>
       <c r="D264" s="13">
+        <f>(B264/C264)</f>
+        <v>1.795912503142847E-5</v>
+      </c>
+      <c r="E264" s="17">
         <f t="shared" si="4"/>
-        <v>1.795912503142847E-5</v>
+        <v>2.4378029979424559E-3</v>
       </c>
       <c r="F264" s="2">
         <v>6.6402762519630801E-2</v>
@@ -17249,7 +18306,7 @@
         <v>2.1274092288798298E-9</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20">
       <c r="A265" s="1" t="s">
         <v>198</v>
       </c>
@@ -17260,8 +18317,12 @@
         <v>94751</v>
       </c>
       <c r="D265" s="13">
+        <f>(B265/C265)</f>
+        <v>2.3218752308682759E-4</v>
+      </c>
+      <c r="E265" s="17">
         <f t="shared" si="4"/>
-        <v>2.3218752308682759E-4</v>
+        <v>3.8247764108112099E-2</v>
       </c>
       <c r="F265" s="2">
         <v>7.5886943345345306E-2</v>
@@ -17309,7 +18370,7 @@
         <v>1.9844193789428601E-9</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20">
       <c r="A266" s="1" t="s">
         <v>211</v>
       </c>
@@ -17320,8 +18381,12 @@
         <v>236849</v>
       </c>
       <c r="D266" s="13">
+        <f>(B266/C266)</f>
+        <v>2.3221546217210121E-4</v>
+      </c>
+      <c r="E266" s="17">
         <f t="shared" si="4"/>
-        <v>2.3221546217210121E-4</v>
+        <v>3.8252434345887217E-2</v>
       </c>
       <c r="F266" s="2">
         <v>7.9796431642752005E-2</v>
@@ -17369,7 +18434,7 @@
         <v>3.0001391396195001E-9</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20">
       <c r="A267" s="1" t="s">
         <v>215</v>
       </c>
@@ -17380,8 +18445,12 @@
         <v>55053</v>
       </c>
       <c r="D267" s="13">
+        <f>(B267/C267)</f>
+        <v>1.0898588632772056E-4</v>
+      </c>
+      <c r="E267" s="17">
         <f t="shared" si="4"/>
-        <v>1.0898588632772056E-4</v>
+        <v>1.7653641848410687E-2</v>
       </c>
       <c r="F267" s="2">
         <v>9.1743125674382295E-2</v>
@@ -17429,7 +18498,7 @@
         <v>2.8420794665649998E-9</v>
       </c>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20">
       <c r="A268" s="1" t="s">
         <v>224</v>
       </c>
@@ -17440,8 +18509,12 @@
         <v>127671</v>
       </c>
       <c r="D268" s="13">
+        <f>(B268/C268)</f>
+        <v>4.6995793876448059E-5</v>
+      </c>
+      <c r="E268" s="17">
         <f t="shared" si="4"/>
-        <v>4.6995793876448059E-5</v>
+        <v>7.2915104967967151E-3</v>
       </c>
       <c r="F268" s="2">
         <v>7.30151628835677E-2</v>
@@ -17489,7 +18562,7 @@
         <v>3.0111233195905499E-9</v>
       </c>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20">
       <c r="A269" s="1" t="s">
         <v>239</v>
       </c>
@@ -17500,8 +18573,12 @@
         <v>138864</v>
       </c>
       <c r="D269" s="13">
+        <f>(B269/C269)</f>
+        <v>1.4402580942504897E-5</v>
+      </c>
+      <c r="E269" s="17">
         <f t="shared" si="4"/>
-        <v>1.4402580942504897E-5</v>
+        <v>1.8432986900774372E-3</v>
       </c>
       <c r="F269" s="2">
         <v>5.79864144277056E-2</v>
@@ -17549,7 +18626,7 @@
         <v>2.9620962411195602E-9</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20">
       <c r="A270" s="1" t="s">
         <v>243</v>
       </c>
@@ -17560,8 +18637,12 @@
         <v>47292</v>
       </c>
       <c r="D270" s="13">
+        <f>(B270/C270)</f>
+        <v>1.2687135244861711E-4</v>
+      </c>
+      <c r="E270" s="17">
         <f t="shared" si="4"/>
-        <v>1.2687135244861711E-4</v>
+        <v>2.0643338135365771E-2</v>
       </c>
       <c r="F270" s="2">
         <v>6.8390664232530804E-2</v>
@@ -17609,7 +18690,7 @@
         <v>2.1052504790033901E-9</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20">
       <c r="A271" s="1" t="s">
         <v>33</v>
       </c>
@@ -17620,10 +18701,13 @@
         <v>254314</v>
       </c>
       <c r="D271" s="13">
+        <f>(B271/C271)</f>
+        <v>6.6846496850350349E-5</v>
+      </c>
+      <c r="E271" s="17">
         <f t="shared" si="4"/>
-        <v>6.6846496850350349E-5</v>
-      </c>
-      <c r="E271" s="8"/>
+        <v>1.0609711575447102E-2</v>
+      </c>
       <c r="F271" s="2">
         <v>0.112980217999315</v>
       </c>
@@ -17670,7 +18754,7 @@
         <v>1.8720173811980001E-9</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20">
       <c r="A272" s="1" t="s">
         <v>129</v>
       </c>
@@ -17681,8 +18765,12 @@
         <v>672589</v>
       </c>
       <c r="D272" s="13">
+        <f>(B272/C272)</f>
+        <v>3.9102631770665297E-4</v>
+      </c>
+      <c r="E272" s="17">
         <f t="shared" si="4"/>
-        <v>3.9102631770665297E-4</v>
+        <v>6.4798917502123188E-2</v>
       </c>
       <c r="F272" s="2">
         <v>0.100044610317157</v>
@@ -17730,7 +18818,7 @@
         <v>1.9140604656208199E-9</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20">
       <c r="A273" s="1" t="s">
         <v>242</v>
       </c>
@@ -17741,8 +18829,12 @@
         <v>283204</v>
       </c>
       <c r="D273" s="13">
+        <f>(B273/C273)</f>
+        <v>1.7655117865566871E-5</v>
+      </c>
+      <c r="E273" s="17">
         <f t="shared" si="4"/>
-        <v>1.7655117865566871E-5</v>
+        <v>2.3869858099060618E-3</v>
       </c>
       <c r="F273" s="2">
         <v>0.15790284625856599</v>
@@ -17790,7 +18882,7 @@
         <v>1.9007700913268999E-9</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20">
       <c r="A274" s="1" t="s">
         <v>13</v>
       </c>
@@ -17801,8 +18893,12 @@
         <v>48880</v>
       </c>
       <c r="D274" s="13">
+        <f>(B274/C274)</f>
+        <v>1.2274959083469721E-4</v>
+      </c>
+      <c r="E274" s="17">
         <f t="shared" si="4"/>
-        <v>1.2274959083469721E-4</v>
+        <v>1.9954353274163134E-2</v>
       </c>
       <c r="F274" s="2">
         <v>8.0742150142643299E-2</v>
@@ -17850,7 +18946,7 @@
         <v>2.5655952522082001E-9</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20">
       <c r="A275" s="1" t="s">
         <v>47</v>
       </c>
@@ -17861,8 +18957,12 @@
         <v>122483</v>
       </c>
       <c r="D275" s="13">
+        <f>(B275/C275)</f>
+        <v>5.7150788272658248E-5</v>
+      </c>
+      <c r="E275" s="17">
         <f t="shared" si="4"/>
-        <v>5.7150788272658248E-5</v>
+        <v>8.9889976539766804E-3</v>
       </c>
       <c r="F275" s="2">
         <v>8.7969966095613902E-2</v>
@@ -17910,7 +19010,7 @@
         <v>2.3709396319964801E-9</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20">
       <c r="A276" s="1" t="s">
         <v>163</v>
       </c>
@@ -17921,8 +19021,12 @@
         <v>315980</v>
       </c>
       <c r="D276" s="13">
+        <f>(B276/C276)</f>
+        <v>9.2727387809355018E-4</v>
+      </c>
+      <c r="E276" s="17">
         <f t="shared" si="4"/>
-        <v>9.2727387809355018E-4</v>
+        <v>0.1544369134783255</v>
       </c>
       <c r="F276" s="2">
         <v>8.6180784297790206E-2</v>
@@ -17970,7 +19074,7 @@
         <v>2.3432854728335899E-9</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20">
       <c r="A277" s="1" t="s">
         <v>173</v>
       </c>
@@ -17981,8 +19085,12 @@
         <v>95286</v>
       </c>
       <c r="D277" s="13">
+        <f>(B277/C277)</f>
+        <v>6.8215687509182881E-4</v>
+      </c>
+      <c r="E277" s="17">
         <f t="shared" si="4"/>
-        <v>6.8215687509182881E-4</v>
+        <v>0.11346367918908297</v>
       </c>
       <c r="F277" s="2">
         <v>5.9636103253494499E-2</v>
@@ -18030,7 +19138,7 @@
         <v>2.3213703785051902E-9</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20">
       <c r="A278" s="1" t="s">
         <v>194</v>
       </c>
@@ -18041,8 +19149,12 @@
         <v>209681</v>
       </c>
       <c r="D278" s="13">
+        <f>(B278/C278)</f>
+        <v>3.338404528784201E-5</v>
+      </c>
+      <c r="E278" s="17">
         <f t="shared" si="4"/>
-        <v>3.338404528784201E-5</v>
+        <v>5.0161996975564629E-3</v>
       </c>
       <c r="F278" s="2">
         <v>9.1112682939054598E-2</v>
@@ -18090,7 +19202,7 @@
         <v>2.4262659159095602E-9</v>
       </c>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20">
       <c r="A279" s="1" t="s">
         <v>63</v>
       </c>
@@ -18101,8 +19213,12 @@
         <v>299885</v>
       </c>
       <c r="D279" s="13">
+        <f>(B279/C279)</f>
+        <v>2.3342281207796321E-5</v>
+      </c>
+      <c r="E279" s="17">
         <f t="shared" si="4"/>
-        <v>2.3342281207796321E-5</v>
+        <v>3.3376398779990956E-3</v>
       </c>
       <c r="F279" s="2">
         <v>9.4862914247172594E-2</v>
@@ -18150,7 +19266,7 @@
         <v>2.27107202880362E-9</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20">
       <c r="A280" s="1" t="s">
         <v>261</v>
       </c>
@@ -18161,8 +19277,12 @@
         <v>131351</v>
       </c>
       <c r="D280" s="13">
+        <f>(B280/C280)</f>
+        <v>7.613189088777398E-6</v>
+      </c>
+      <c r="E280" s="17">
         <f t="shared" si="4"/>
-        <v>7.613189088777398E-6</v>
+        <v>7.0839845999303959E-4</v>
       </c>
       <c r="F280" s="2">
         <v>9.6139798292508599E-2</v>
@@ -18210,29 +19330,39 @@
         <v>2.71832502013374E-9</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20">
       <c r="D281" s="12"/>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20">
       <c r="D282" s="12"/>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C283" t="s">
-        <v>298</v>
-      </c>
-      <c r="D283" s="13">
-        <f>AVERAGE(D2:D280)</f>
-        <v>1.6784413392696067E-4</v>
-      </c>
-    </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C284" t="s">
-        <v>299</v>
-      </c>
-      <c r="D284" s="10">
-        <f>STDEV(D2:D280)</f>
-        <v>3.9193476029795082E-4</v>
-      </c>
+    <row r="283" spans="1:20">
+      <c r="A283" s="16"/>
+      <c r="D283" s="13"/>
+    </row>
+    <row r="284" spans="1:20">
+      <c r="A284" s="16"/>
+      <c r="D284" s="10"/>
+    </row>
+    <row r="287" spans="1:20">
+      <c r="D287" s="14"/>
+    </row>
+    <row r="290" spans="4:5">
+      <c r="D290" s="15"/>
+      <c r="E290" s="14"/>
+    </row>
+    <row r="291" spans="4:5">
+      <c r="D291" s="15"/>
+      <c r="E291" s="14">
+        <f>(D280-0.000001864527184)/(0.005985744199327-0.000001864527184)</f>
+        <v>9.6069142759326858E-4</v>
+      </c>
+    </row>
+    <row r="292" spans="4:5">
+      <c r="D292" s="15"/>
+    </row>
+    <row r="293" spans="4:5">
+      <c r="D293" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
